--- a/inst/extdata/ef_checklist.xlsx
+++ b/inst/extdata/ef_checklist.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AMishra\OneDrive - CGIAR\Documents\Work\IFPRI\ADB\GHG\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\EPTD\package_sources\EFFORT\inst\extdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CEBC4BF-D9A2-4D2C-8033-3CD026376F97}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F398990C-8C2B-49B7-A415-B8160ABB95F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="6" xr2:uid="{10CC2BE2-28BE-4053-80CA-8E13E81B30FF}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="3" xr2:uid="{10CC2BE2-28BE-4053-80CA-8E13E81B30FF}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -22,6 +22,7 @@
     <sheet name="ac_map" sheetId="7" r:id="rId7"/>
   </sheets>
   <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">ac_map!$A$1:$C$143</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">impact_map_fao!$A$1:$B$147</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$2:$E$2</definedName>
   </definedNames>
@@ -1410,9 +1411,6 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
@@ -1426,9 +1424,12 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1781,10 +1782,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="20" t="s">
         <v>47</v>
       </c>
-      <c r="B1" s="13"/>
+      <c r="B1" s="20"/>
       <c r="C1" s="8" t="s">
         <v>48</v>
       </c>
@@ -3816,7 +3817,7 @@
       <c r="B125" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C125" s="18">
+      <c r="C125" s="17">
         <v>71</v>
       </c>
       <c r="D125">
@@ -4152,14 +4153,14 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="9.140625" style="19"/>
+    <col min="2" max="2" width="9.140625" style="18"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="19" t="s">
+      <c r="B1" s="18" t="s">
         <v>222</v>
       </c>
     </row>
@@ -4167,7 +4168,7 @@
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="19" t="s">
+      <c r="B2" s="18" t="s">
         <v>3</v>
       </c>
     </row>
@@ -4175,7 +4176,7 @@
       <c r="A3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="19" t="s">
+      <c r="B3" s="18" t="s">
         <v>3</v>
       </c>
     </row>
@@ -4183,7 +4184,7 @@
       <c r="A4" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="19" t="s">
+      <c r="B4" s="18" t="s">
         <v>3</v>
       </c>
     </row>
@@ -4191,7 +4192,7 @@
       <c r="A5" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="19" t="s">
+      <c r="B5" s="18" t="s">
         <v>3</v>
       </c>
     </row>
@@ -4199,7 +4200,7 @@
       <c r="A6" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="19" t="s">
+      <c r="B6" s="18" t="s">
         <v>3</v>
       </c>
     </row>
@@ -4207,7 +4208,7 @@
       <c r="A7" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="19" t="s">
+      <c r="B7" s="18" t="s">
         <v>3</v>
       </c>
     </row>
@@ -4215,7 +4216,7 @@
       <c r="A8" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="19" t="s">
+      <c r="B8" s="18" t="s">
         <v>3</v>
       </c>
     </row>
@@ -4223,7 +4224,7 @@
       <c r="A9" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B9" s="19" t="s">
+      <c r="B9" s="18" t="s">
         <v>3</v>
       </c>
     </row>
@@ -4231,7 +4232,7 @@
       <c r="A10" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B10" s="19" t="s">
+      <c r="B10" s="18" t="s">
         <v>3</v>
       </c>
     </row>
@@ -4239,7 +4240,7 @@
       <c r="A11" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B11" s="19" t="s">
+      <c r="B11" s="18" t="s">
         <v>3</v>
       </c>
     </row>
@@ -4247,7 +4248,7 @@
       <c r="A12" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B12" s="19" t="s">
+      <c r="B12" s="18" t="s">
         <v>3</v>
       </c>
     </row>
@@ -4255,7 +4256,7 @@
       <c r="A13" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B13" s="19" t="s">
+      <c r="B13" s="18" t="s">
         <v>3</v>
       </c>
     </row>
@@ -4263,7 +4264,7 @@
       <c r="A14" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B14" s="19" t="s">
+      <c r="B14" s="18" t="s">
         <v>3</v>
       </c>
     </row>
@@ -4271,7 +4272,7 @@
       <c r="A15" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B15" s="19" t="s">
+      <c r="B15" s="18" t="s">
         <v>3</v>
       </c>
     </row>
@@ -4279,7 +4280,7 @@
       <c r="A16" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B16" s="19" t="s">
+      <c r="B16" s="18" t="s">
         <v>3</v>
       </c>
     </row>
@@ -4287,7 +4288,7 @@
       <c r="A17" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="B17" s="19" t="s">
+      <c r="B17" s="18" t="s">
         <v>3</v>
       </c>
     </row>
@@ -4295,7 +4296,7 @@
       <c r="A18" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B18" s="19" t="s">
+      <c r="B18" s="18" t="s">
         <v>13</v>
       </c>
     </row>
@@ -4303,7 +4304,7 @@
       <c r="A19" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B19" s="19" t="s">
+      <c r="B19" s="18" t="s">
         <v>13</v>
       </c>
     </row>
@@ -4311,7 +4312,7 @@
       <c r="A20" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B20" s="19" t="s">
+      <c r="B20" s="18" t="s">
         <v>13</v>
       </c>
     </row>
@@ -4319,7 +4320,7 @@
       <c r="A21" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B21" s="19" t="s">
+      <c r="B21" s="18" t="s">
         <v>13</v>
       </c>
     </row>
@@ -4327,7 +4328,7 @@
       <c r="A22" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B22" s="19" t="s">
+      <c r="B22" s="18" t="s">
         <v>13</v>
       </c>
     </row>
@@ -4335,7 +4336,7 @@
       <c r="A23" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B23" s="19" t="s">
+      <c r="B23" s="18" t="s">
         <v>13</v>
       </c>
     </row>
@@ -4343,7 +4344,7 @@
       <c r="A24" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B24" s="19" t="s">
+      <c r="B24" s="18" t="s">
         <v>13</v>
       </c>
     </row>
@@ -4351,7 +4352,7 @@
       <c r="A25" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B25" s="19" t="s">
+      <c r="B25" s="18" t="s">
         <v>13</v>
       </c>
     </row>
@@ -4359,7 +4360,7 @@
       <c r="A26" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B26" s="19" t="s">
+      <c r="B26" s="18" t="s">
         <v>13</v>
       </c>
     </row>
@@ -4367,7 +4368,7 @@
       <c r="A27" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B27" s="19" t="s">
+      <c r="B27" s="18" t="s">
         <v>13</v>
       </c>
     </row>
@@ -4375,7 +4376,7 @@
       <c r="A28" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B28" s="19" t="s">
+      <c r="B28" s="18" t="s">
         <v>13</v>
       </c>
     </row>
@@ -4383,7 +4384,7 @@
       <c r="A29" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B29" s="19" t="s">
+      <c r="B29" s="18" t="s">
         <v>13</v>
       </c>
     </row>
@@ -4391,7 +4392,7 @@
       <c r="A30" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B30" s="19" t="s">
+      <c r="B30" s="18" t="s">
         <v>13</v>
       </c>
     </row>
@@ -4399,7 +4400,7 @@
       <c r="A31" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B31" s="19" t="s">
+      <c r="B31" s="18" t="s">
         <v>13</v>
       </c>
     </row>
@@ -4407,7 +4408,7 @@
       <c r="A32" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B32" s="19" t="s">
+      <c r="B32" s="18" t="s">
         <v>13</v>
       </c>
     </row>
@@ -4415,7 +4416,7 @@
       <c r="A33" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B33" s="19" t="s">
+      <c r="B33" s="18" t="s">
         <v>13</v>
       </c>
     </row>
@@ -4423,7 +4424,7 @@
       <c r="A34" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B34" s="19" t="s">
+      <c r="B34" s="18" t="s">
         <v>13</v>
       </c>
     </row>
@@ -4431,7 +4432,7 @@
       <c r="A35" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B35" s="19" t="s">
+      <c r="B35" s="18" t="s">
         <v>13</v>
       </c>
     </row>
@@ -4439,7 +4440,7 @@
       <c r="A36" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B36" s="19" t="s">
+      <c r="B36" s="18" t="s">
         <v>13</v>
       </c>
     </row>
@@ -4447,7 +4448,7 @@
       <c r="A37" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B37" s="19" t="s">
+      <c r="B37" s="18" t="s">
         <v>13</v>
       </c>
     </row>
@@ -4455,7 +4456,7 @@
       <c r="A38" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B38" s="19" t="s">
+      <c r="B38" s="18" t="s">
         <v>13</v>
       </c>
     </row>
@@ -4463,7 +4464,7 @@
       <c r="A39" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B39" s="19" t="s">
+      <c r="B39" s="18" t="s">
         <v>13</v>
       </c>
     </row>
@@ -4471,7 +4472,7 @@
       <c r="A40" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B40" s="19" t="s">
+      <c r="B40" s="18" t="s">
         <v>13</v>
       </c>
     </row>
@@ -4479,7 +4480,7 @@
       <c r="A41" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B41" s="19" t="s">
+      <c r="B41" s="18" t="s">
         <v>13</v>
       </c>
     </row>
@@ -4487,7 +4488,7 @@
       <c r="A42" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B42" s="19" t="s">
+      <c r="B42" s="18" t="s">
         <v>13</v>
       </c>
     </row>
@@ -4495,7 +4496,7 @@
       <c r="A43" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B43" s="19" t="s">
+      <c r="B43" s="18" t="s">
         <v>13</v>
       </c>
     </row>
@@ -4503,7 +4504,7 @@
       <c r="A44" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B44" s="19" t="s">
+      <c r="B44" s="18" t="s">
         <v>13</v>
       </c>
     </row>
@@ -4511,7 +4512,7 @@
       <c r="A45" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B45" s="19" t="s">
+      <c r="B45" s="18" t="s">
         <v>26</v>
       </c>
     </row>
@@ -4519,7 +4520,7 @@
       <c r="A46" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="B46" s="19" t="s">
+      <c r="B46" s="18" t="s">
         <v>26</v>
       </c>
     </row>
@@ -4527,7 +4528,7 @@
       <c r="A47" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B47" s="19" t="s">
+      <c r="B47" s="18" t="s">
         <v>14</v>
       </c>
     </row>
@@ -4535,7 +4536,7 @@
       <c r="A48" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B48" s="19" t="s">
+      <c r="B48" s="18" t="s">
         <v>14</v>
       </c>
     </row>
@@ -4543,7 +4544,7 @@
       <c r="A49" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B49" s="19" t="s">
+      <c r="B49" s="18" t="s">
         <v>14</v>
       </c>
     </row>
@@ -4551,7 +4552,7 @@
       <c r="A50" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B50" s="19" t="s">
+      <c r="B50" s="18" t="s">
         <v>14</v>
       </c>
     </row>
@@ -4559,7 +4560,7 @@
       <c r="A51" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="B51" s="19" t="s">
+      <c r="B51" s="18" t="s">
         <v>14</v>
       </c>
     </row>
@@ -4567,7 +4568,7 @@
       <c r="A52" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="B52" s="19" t="s">
+      <c r="B52" s="18" t="s">
         <v>14</v>
       </c>
     </row>
@@ -4575,7 +4576,7 @@
       <c r="A53" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="B53" s="19" t="s">
+      <c r="B53" s="18" t="s">
         <v>14</v>
       </c>
     </row>
@@ -4583,7 +4584,7 @@
       <c r="A54" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="B54" s="19" t="s">
+      <c r="B54" s="18" t="s">
         <v>14</v>
       </c>
     </row>
@@ -4591,7 +4592,7 @@
       <c r="A55" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="B55" s="19" t="s">
+      <c r="B55" s="18" t="s">
         <v>14</v>
       </c>
     </row>
@@ -4599,7 +4600,7 @@
       <c r="A56" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="B56" s="19" t="s">
+      <c r="B56" s="18" t="s">
         <v>21</v>
       </c>
     </row>
@@ -4607,7 +4608,7 @@
       <c r="A57" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="B57" s="19" t="s">
+      <c r="B57" s="18" t="s">
         <v>21</v>
       </c>
     </row>
@@ -4615,7 +4616,7 @@
       <c r="A58" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="B58" s="19" t="s">
+      <c r="B58" s="18" t="s">
         <v>21</v>
       </c>
     </row>
@@ -4623,7 +4624,7 @@
       <c r="A59" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="B59" s="19" t="s">
+      <c r="B59" s="18" t="s">
         <v>21</v>
       </c>
     </row>
@@ -4631,7 +4632,7 @@
       <c r="A60" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="B60" s="19" t="s">
+      <c r="B60" s="18" t="s">
         <v>21</v>
       </c>
     </row>
@@ -4639,7 +4640,7 @@
       <c r="A61" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="B61" s="19" t="s">
+      <c r="B61" s="18" t="s">
         <v>21</v>
       </c>
     </row>
@@ -4647,7 +4648,7 @@
       <c r="A62" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="B62" s="19" t="s">
+      <c r="B62" s="18" t="s">
         <v>21</v>
       </c>
     </row>
@@ -4655,7 +4656,7 @@
       <c r="A63" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="B63" s="19" t="s">
+      <c r="B63" s="18" t="s">
         <v>21</v>
       </c>
     </row>
@@ -4663,7 +4664,7 @@
       <c r="A64" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="B64" s="19" t="s">
+      <c r="B64" s="18" t="s">
         <v>21</v>
       </c>
     </row>
@@ -4671,7 +4672,7 @@
       <c r="A65" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="B65" s="19" t="s">
+      <c r="B65" s="18" t="s">
         <v>21</v>
       </c>
     </row>
@@ -4679,7 +4680,7 @@
       <c r="A66" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="B66" s="19" t="s">
+      <c r="B66" s="18" t="s">
         <v>21</v>
       </c>
     </row>
@@ -4687,7 +4688,7 @@
       <c r="A67" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="B67" s="19" t="s">
+      <c r="B67" s="18" t="s">
         <v>21</v>
       </c>
     </row>
@@ -4695,7 +4696,7 @@
       <c r="A68" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="B68" s="19" t="s">
+      <c r="B68" s="18" t="s">
         <v>21</v>
       </c>
     </row>
@@ -4703,7 +4704,7 @@
       <c r="A69" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="B69" s="19" t="s">
+      <c r="B69" s="18" t="s">
         <v>21</v>
       </c>
     </row>
@@ -4711,7 +4712,7 @@
       <c r="A70" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="B70" s="19" t="s">
+      <c r="B70" s="18" t="s">
         <v>21</v>
       </c>
     </row>
@@ -4719,7 +4720,7 @@
       <c r="A71" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="B71" s="19" t="s">
+      <c r="B71" s="18" t="s">
         <v>21</v>
       </c>
     </row>
@@ -4727,7 +4728,7 @@
       <c r="A72" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="B72" s="19" t="s">
+      <c r="B72" s="18" t="s">
         <v>21</v>
       </c>
     </row>
@@ -4735,7 +4736,7 @@
       <c r="A73" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="B73" s="19" t="s">
+      <c r="B73" s="18" t="s">
         <v>21</v>
       </c>
     </row>
@@ -4743,7 +4744,7 @@
       <c r="A74" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="B74" s="19" t="s">
+      <c r="B74" s="18" t="s">
         <v>21</v>
       </c>
     </row>
@@ -4751,7 +4752,7 @@
       <c r="A75" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="B75" s="19" t="s">
+      <c r="B75" s="18" t="s">
         <v>21</v>
       </c>
     </row>
@@ -4759,7 +4760,7 @@
       <c r="A76" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="B76" s="19" t="s">
+      <c r="B76" s="18" t="s">
         <v>21</v>
       </c>
     </row>
@@ -4767,7 +4768,7 @@
       <c r="A77" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="B77" s="19" t="s">
+      <c r="B77" s="18" t="s">
         <v>21</v>
       </c>
     </row>
@@ -4775,7 +4776,7 @@
       <c r="A78" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="B78" s="19" t="s">
+      <c r="B78" s="18" t="s">
         <v>21</v>
       </c>
     </row>
@@ -4783,7 +4784,7 @@
       <c r="A79" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="B79" s="19" t="s">
+      <c r="B79" s="18" t="s">
         <v>21</v>
       </c>
     </row>
@@ -4791,7 +4792,7 @@
       <c r="A80" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="B80" s="19" t="s">
+      <c r="B80" s="18" t="s">
         <v>21</v>
       </c>
     </row>
@@ -4799,7 +4800,7 @@
       <c r="A81" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="B81" s="19" t="s">
+      <c r="B81" s="18" t="s">
         <v>21</v>
       </c>
     </row>
@@ -4807,7 +4808,7 @@
       <c r="A82" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="B82" s="19" t="s">
+      <c r="B82" s="18" t="s">
         <v>21</v>
       </c>
     </row>
@@ -4815,7 +4816,7 @@
       <c r="A83" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="B83" s="19" t="s">
+      <c r="B83" s="18" t="s">
         <v>21</v>
       </c>
     </row>
@@ -4823,7 +4824,7 @@
       <c r="A84" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="B84" s="19" t="s">
+      <c r="B84" s="18" t="s">
         <v>21</v>
       </c>
     </row>
@@ -4831,7 +4832,7 @@
       <c r="A85" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="B85" s="19" t="s">
+      <c r="B85" s="18" t="s">
         <v>21</v>
       </c>
     </row>
@@ -4839,7 +4840,7 @@
       <c r="A86" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="B86" s="19" t="s">
+      <c r="B86" s="18" t="s">
         <v>21</v>
       </c>
     </row>
@@ -4847,7 +4848,7 @@
       <c r="A87" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="B87" s="19" t="s">
+      <c r="B87" s="18" t="s">
         <v>21</v>
       </c>
     </row>
@@ -4855,7 +4856,7 @@
       <c r="A88" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="B88" s="19" t="s">
+      <c r="B88" s="18" t="s">
         <v>21</v>
       </c>
     </row>
@@ -4863,7 +4864,7 @@
       <c r="A89" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="B89" s="19" t="s">
+      <c r="B89" s="18" t="s">
         <v>21</v>
       </c>
     </row>
@@ -4871,7 +4872,7 @@
       <c r="A90" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="B90" s="19" t="s">
+      <c r="B90" s="18" t="s">
         <v>21</v>
       </c>
     </row>
@@ -4879,7 +4880,7 @@
       <c r="A91" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="B91" s="19" t="s">
+      <c r="B91" s="18" t="s">
         <v>21</v>
       </c>
     </row>
@@ -4887,7 +4888,7 @@
       <c r="A92" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="B92" s="19" t="s">
+      <c r="B92" s="18" t="s">
         <v>21</v>
       </c>
     </row>
@@ -4895,7 +4896,7 @@
       <c r="A93" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="B93" s="19" t="s">
+      <c r="B93" s="18" t="s">
         <v>21</v>
       </c>
     </row>
@@ -4903,7 +4904,7 @@
       <c r="A94" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="B94" s="19" t="s">
+      <c r="B94" s="18" t="s">
         <v>21</v>
       </c>
     </row>
@@ -4911,7 +4912,7 @@
       <c r="A95" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="B95" s="19" t="s">
+      <c r="B95" s="18" t="s">
         <v>21</v>
       </c>
     </row>
@@ -4919,7 +4920,7 @@
       <c r="A96" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="B96" s="19" t="s">
+      <c r="B96" s="18" t="s">
         <v>21</v>
       </c>
     </row>
@@ -4927,7 +4928,7 @@
       <c r="A97" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="B97" s="19" t="s">
+      <c r="B97" s="18" t="s">
         <v>21</v>
       </c>
     </row>
@@ -4935,7 +4936,7 @@
       <c r="A98" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="B98" s="19" t="s">
+      <c r="B98" s="18" t="s">
         <v>21</v>
       </c>
     </row>
@@ -4943,7 +4944,7 @@
       <c r="A99" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="B99" s="19" t="s">
+      <c r="B99" s="18" t="s">
         <v>21</v>
       </c>
     </row>
@@ -4951,7 +4952,7 @@
       <c r="A100" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="B100" s="19" t="s">
+      <c r="B100" s="18" t="s">
         <v>21</v>
       </c>
     </row>
@@ -4959,7 +4960,7 @@
       <c r="A101" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="B101" s="19" t="s">
+      <c r="B101" s="18" t="s">
         <v>21</v>
       </c>
     </row>
@@ -4967,7 +4968,7 @@
       <c r="A102" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="B102" s="19" t="s">
+      <c r="B102" s="18" t="s">
         <v>21</v>
       </c>
     </row>
@@ -4975,7 +4976,7 @@
       <c r="A103" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="B103" s="19" t="s">
+      <c r="B103" s="18" t="s">
         <v>21</v>
       </c>
     </row>
@@ -4983,7 +4984,7 @@
       <c r="A104" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="B104" s="19" t="s">
+      <c r="B104" s="18" t="s">
         <v>21</v>
       </c>
     </row>
@@ -4991,7 +4992,7 @@
       <c r="A105" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="B105" s="19" t="s">
+      <c r="B105" s="18" t="s">
         <v>21</v>
       </c>
     </row>
@@ -4999,7 +5000,7 @@
       <c r="A106" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="B106" s="19" t="s">
+      <c r="B106" s="18" t="s">
         <v>21</v>
       </c>
     </row>
@@ -5007,7 +5008,7 @@
       <c r="A107" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="B107" s="19" t="s">
+      <c r="B107" s="18" t="s">
         <v>21</v>
       </c>
     </row>
@@ -5015,7 +5016,7 @@
       <c r="A108" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="B108" s="19" t="s">
+      <c r="B108" s="18" t="s">
         <v>21</v>
       </c>
     </row>
@@ -5023,7 +5024,7 @@
       <c r="A109" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="B109" s="19" t="s">
+      <c r="B109" s="18" t="s">
         <v>21</v>
       </c>
     </row>
@@ -5031,7 +5032,7 @@
       <c r="A110" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="B110" s="19" t="s">
+      <c r="B110" s="18" t="s">
         <v>21</v>
       </c>
     </row>
@@ -5039,7 +5040,7 @@
       <c r="A111" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="B111" s="19" t="s">
+      <c r="B111" s="18" t="s">
         <v>21</v>
       </c>
     </row>
@@ -5047,7 +5048,7 @@
       <c r="A112" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="B112" s="19" t="s">
+      <c r="B112" s="18" t="s">
         <v>21</v>
       </c>
     </row>
@@ -5055,7 +5056,7 @@
       <c r="A113" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="B113" s="19" t="s">
+      <c r="B113" s="18" t="s">
         <v>21</v>
       </c>
     </row>
@@ -5063,7 +5064,7 @@
       <c r="A114" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="B114" s="19" t="s">
+      <c r="B114" s="18" t="s">
         <v>21</v>
       </c>
     </row>
@@ -5071,7 +5072,7 @@
       <c r="A115" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="B115" s="19" t="s">
+      <c r="B115" s="18" t="s">
         <v>21</v>
       </c>
     </row>
@@ -5079,7 +5080,7 @@
       <c r="A116" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="B116" s="19" t="s">
+      <c r="B116" s="18" t="s">
         <v>21</v>
       </c>
     </row>
@@ -5087,7 +5088,7 @@
       <c r="A117" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="B117" s="19" t="s">
+      <c r="B117" s="18" t="s">
         <v>21</v>
       </c>
     </row>
@@ -5095,7 +5096,7 @@
       <c r="A118" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="B118" s="19" t="s">
+      <c r="B118" s="18" t="s">
         <v>29</v>
       </c>
     </row>
@@ -5295,7 +5296,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F51624A-A337-47B6-802F-4128AACC5276}">
   <dimension ref="A1:B147"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
@@ -6346,7 +6347,7 @@
       </c>
     </row>
     <row r="131" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A131" s="17">
+      <c r="A131" s="16">
         <v>947</v>
       </c>
       <c r="B131" s="3" t="s">
@@ -6354,7 +6355,7 @@
       </c>
     </row>
     <row r="132" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A132" s="17">
+      <c r="A132" s="16">
         <v>951</v>
       </c>
       <c r="B132" s="3" t="s">
@@ -6362,7 +6363,7 @@
       </c>
     </row>
     <row r="133" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A133" s="17">
+      <c r="A133" s="16">
         <v>1130</v>
       </c>
       <c r="B133" s="3" t="s">
@@ -6370,7 +6371,7 @@
       </c>
     </row>
     <row r="134" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A134" s="17">
+      <c r="A134" s="16">
         <v>867</v>
       </c>
       <c r="B134" s="3" t="s">
@@ -6378,7 +6379,7 @@
       </c>
     </row>
     <row r="135" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A135" s="17">
+      <c r="A135" s="16">
         <v>1058</v>
       </c>
       <c r="B135" s="3" t="s">
@@ -6386,7 +6387,7 @@
       </c>
     </row>
     <row r="136" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A136" s="17">
+      <c r="A136" s="16">
         <v>882</v>
       </c>
       <c r="B136" s="3" t="s">
@@ -6394,7 +6395,7 @@
       </c>
     </row>
     <row r="137" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A137" s="17">
+      <c r="A137" s="16">
         <v>1069</v>
       </c>
       <c r="B137" s="3" t="s">
@@ -6402,15 +6403,15 @@
       </c>
     </row>
     <row r="138" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A138" s="15">
+      <c r="A138" s="14">
         <v>1017</v>
       </c>
-      <c r="B138" s="16" t="s">
+      <c r="B138" s="15" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="139" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A139" s="17">
+      <c r="A139" s="16">
         <v>1020</v>
       </c>
       <c r="B139" s="3" t="s">
@@ -6418,7 +6419,7 @@
       </c>
     </row>
     <row r="140" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A140" s="17">
+      <c r="A140" s="16">
         <v>1073</v>
       </c>
       <c r="B140" s="3" t="s">
@@ -6426,15 +6427,15 @@
       </c>
     </row>
     <row r="141" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A141" s="15">
+      <c r="A141" s="14">
         <v>1035</v>
       </c>
-      <c r="B141" s="16" t="s">
+      <c r="B141" s="15" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="142" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A142" s="17">
+      <c r="A142" s="16">
         <v>1083</v>
       </c>
       <c r="B142" s="3" t="s">
@@ -6442,15 +6443,15 @@
       </c>
     </row>
     <row r="143" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A143" s="15">
+      <c r="A143" s="14">
         <v>977</v>
       </c>
-      <c r="B143" s="16" t="s">
+      <c r="B143" s="15" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="144" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A144" s="17">
+      <c r="A144" s="16">
         <v>982</v>
       </c>
       <c r="B144" s="3" t="s">
@@ -6458,7 +6459,7 @@
       </c>
     </row>
     <row r="145" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A145" s="17">
+      <c r="A145" s="16">
         <v>1080</v>
       </c>
       <c r="B145" s="3" t="s">
@@ -6466,18 +6467,18 @@
       </c>
     </row>
     <row r="146" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A146" s="15">
+      <c r="A146" s="14">
         <v>1062</v>
       </c>
-      <c r="B146" s="16" t="s">
+      <c r="B146" s="15" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="147" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A147" s="15">
+      <c r="A147" s="14">
         <v>1091</v>
       </c>
-      <c r="B147" s="16" t="s">
+      <c r="B147" s="15" t="s">
         <v>41</v>
       </c>
     </row>
@@ -6508,7 +6509,7 @@
       <c r="A2">
         <v>1</v>
       </c>
-      <c r="B2" s="14" t="s">
+      <c r="B2" s="13" t="s">
         <v>50</v>
       </c>
     </row>
@@ -6516,7 +6517,7 @@
       <c r="A3">
         <v>2</v>
       </c>
-      <c r="B3" s="14" t="s">
+      <c r="B3" s="13" t="s">
         <v>51</v>
       </c>
     </row>
@@ -6524,7 +6525,7 @@
       <c r="A4">
         <v>3</v>
       </c>
-      <c r="B4" s="14" t="s">
+      <c r="B4" s="13" t="s">
         <v>52</v>
       </c>
     </row>
@@ -6532,7 +6533,7 @@
       <c r="A5">
         <v>4</v>
       </c>
-      <c r="B5" s="14" t="s">
+      <c r="B5" s="13" t="s">
         <v>53</v>
       </c>
     </row>
@@ -6540,7 +6541,7 @@
       <c r="A6">
         <v>5</v>
       </c>
-      <c r="B6" s="14" t="s">
+      <c r="B6" s="13" t="s">
         <v>54</v>
       </c>
     </row>
@@ -6548,7 +6549,7 @@
       <c r="A7">
         <v>7</v>
       </c>
-      <c r="B7" s="14" t="s">
+      <c r="B7" s="13" t="s">
         <v>55</v>
       </c>
     </row>
@@ -6556,7 +6557,7 @@
       <c r="A8">
         <v>8</v>
       </c>
-      <c r="B8" s="14" t="s">
+      <c r="B8" s="13" t="s">
         <v>56</v>
       </c>
     </row>
@@ -6564,7 +6565,7 @@
       <c r="A9">
         <v>9</v>
       </c>
-      <c r="B9" s="14" t="s">
+      <c r="B9" s="13" t="s">
         <v>57</v>
       </c>
     </row>
@@ -6572,7 +6573,7 @@
       <c r="A10">
         <v>10</v>
       </c>
-      <c r="B10" s="14" t="s">
+      <c r="B10" s="13" t="s">
         <v>58</v>
       </c>
     </row>
@@ -6580,7 +6581,7 @@
       <c r="A11">
         <v>11</v>
       </c>
-      <c r="B11" s="14" t="s">
+      <c r="B11" s="13" t="s">
         <v>59</v>
       </c>
     </row>
@@ -6588,7 +6589,7 @@
       <c r="A12">
         <v>12</v>
       </c>
-      <c r="B12" s="14" t="s">
+      <c r="B12" s="13" t="s">
         <v>56</v>
       </c>
     </row>
@@ -6596,7 +6597,7 @@
       <c r="A13">
         <v>13</v>
       </c>
-      <c r="B13" s="14" t="s">
+      <c r="B13" s="13" t="s">
         <v>60</v>
       </c>
     </row>
@@ -6604,7 +6605,7 @@
       <c r="A14">
         <v>14</v>
       </c>
-      <c r="B14" s="14" t="s">
+      <c r="B14" s="13" t="s">
         <v>56</v>
       </c>
     </row>
@@ -6612,7 +6613,7 @@
       <c r="A15">
         <v>16</v>
       </c>
-      <c r="B15" s="14" t="s">
+      <c r="B15" s="13" t="s">
         <v>61</v>
       </c>
     </row>
@@ -6620,7 +6621,7 @@
       <c r="A16">
         <v>17</v>
       </c>
-      <c r="B16" s="14" t="s">
+      <c r="B16" s="13" t="s">
         <v>62</v>
       </c>
     </row>
@@ -6628,7 +6629,7 @@
       <c r="A17">
         <v>18</v>
       </c>
-      <c r="B17" s="14" t="s">
+      <c r="B17" s="13" t="s">
         <v>63</v>
       </c>
     </row>
@@ -6636,7 +6637,7 @@
       <c r="A18">
         <v>19</v>
       </c>
-      <c r="B18" s="14" t="s">
+      <c r="B18" s="13" t="s">
         <v>64</v>
       </c>
     </row>
@@ -6644,7 +6645,7 @@
       <c r="A19">
         <v>20</v>
       </c>
-      <c r="B19" s="14" t="s">
+      <c r="B19" s="13" t="s">
         <v>65</v>
       </c>
     </row>
@@ -6652,7 +6653,7 @@
       <c r="A20">
         <v>21</v>
       </c>
-      <c r="B20" s="14" t="s">
+      <c r="B20" s="13" t="s">
         <v>66</v>
       </c>
     </row>
@@ -6660,7 +6661,7 @@
       <c r="A21">
         <v>22</v>
       </c>
-      <c r="B21" s="14" t="s">
+      <c r="B21" s="13" t="s">
         <v>56</v>
       </c>
     </row>
@@ -6668,7 +6669,7 @@
       <c r="A22">
         <v>23</v>
       </c>
-      <c r="B22" s="14" t="s">
+      <c r="B22" s="13" t="s">
         <v>67</v>
       </c>
     </row>
@@ -6676,7 +6677,7 @@
       <c r="A23">
         <v>25</v>
       </c>
-      <c r="B23" s="14" t="s">
+      <c r="B23" s="13" t="s">
         <v>68</v>
       </c>
     </row>
@@ -6684,7 +6685,7 @@
       <c r="A24">
         <v>26</v>
       </c>
-      <c r="B24" s="14" t="s">
+      <c r="B24" s="13" t="s">
         <v>69</v>
       </c>
     </row>
@@ -6692,7 +6693,7 @@
       <c r="A25">
         <v>27</v>
       </c>
-      <c r="B25" s="14" t="s">
+      <c r="B25" s="13" t="s">
         <v>70</v>
       </c>
     </row>
@@ -6700,7 +6701,7 @@
       <c r="A26">
         <v>28</v>
       </c>
-      <c r="B26" s="14" t="s">
+      <c r="B26" s="13" t="s">
         <v>71</v>
       </c>
     </row>
@@ -6708,7 +6709,7 @@
       <c r="A27">
         <v>29</v>
       </c>
-      <c r="B27" s="14" t="s">
+      <c r="B27" s="13" t="s">
         <v>72</v>
       </c>
     </row>
@@ -6716,7 +6717,7 @@
       <c r="A28">
         <v>32</v>
       </c>
-      <c r="B28" s="14" t="s">
+      <c r="B28" s="13" t="s">
         <v>73</v>
       </c>
     </row>
@@ -6724,7 +6725,7 @@
       <c r="A29">
         <v>33</v>
       </c>
-      <c r="B29" s="14" t="s">
+      <c r="B29" s="13" t="s">
         <v>74</v>
       </c>
     </row>
@@ -6732,7 +6733,7 @@
       <c r="A30">
         <v>35</v>
       </c>
-      <c r="B30" s="14" t="s">
+      <c r="B30" s="13" t="s">
         <v>62</v>
       </c>
     </row>
@@ -6740,7 +6741,7 @@
       <c r="A31">
         <v>36</v>
       </c>
-      <c r="B31" s="14" t="s">
+      <c r="B31" s="13" t="s">
         <v>56</v>
       </c>
     </row>
@@ -6748,7 +6749,7 @@
       <c r="A32">
         <v>37</v>
       </c>
-      <c r="B32" s="14" t="s">
+      <c r="B32" s="13" t="s">
         <v>75</v>
       </c>
     </row>
@@ -6756,7 +6757,7 @@
       <c r="A33">
         <v>38</v>
       </c>
-      <c r="B33" s="14" t="s">
+      <c r="B33" s="13" t="s">
         <v>76</v>
       </c>
     </row>
@@ -6764,7 +6765,7 @@
       <c r="A34">
         <v>39</v>
       </c>
-      <c r="B34" s="14" t="s">
+      <c r="B34" s="13" t="s">
         <v>77</v>
       </c>
     </row>
@@ -6772,7 +6773,7 @@
       <c r="A35">
         <v>40</v>
       </c>
-      <c r="B35" s="14" t="s">
+      <c r="B35" s="13" t="s">
         <v>78</v>
       </c>
     </row>
@@ -6780,7 +6781,7 @@
       <c r="A36">
         <v>44</v>
       </c>
-      <c r="B36" s="14" t="s">
+      <c r="B36" s="13" t="s">
         <v>79</v>
       </c>
     </row>
@@ -6788,7 +6789,7 @@
       <c r="A37">
         <v>45</v>
       </c>
-      <c r="B37" s="14" t="s">
+      <c r="B37" s="13" t="s">
         <v>80</v>
       </c>
     </row>
@@ -6796,7 +6797,7 @@
       <c r="A38">
         <v>46</v>
       </c>
-      <c r="B38" s="14" t="s">
+      <c r="B38" s="13" t="s">
         <v>81</v>
       </c>
     </row>
@@ -6804,7 +6805,7 @@
       <c r="A39">
         <v>47</v>
       </c>
-      <c r="B39" s="14" t="s">
+      <c r="B39" s="13" t="s">
         <v>54</v>
       </c>
     </row>
@@ -6812,7 +6813,7 @@
       <c r="A40">
         <v>48</v>
       </c>
-      <c r="B40" s="14" t="s">
+      <c r="B40" s="13" t="s">
         <v>82</v>
       </c>
     </row>
@@ -6820,7 +6821,7 @@
       <c r="A41">
         <v>49</v>
       </c>
-      <c r="B41" s="14" t="s">
+      <c r="B41" s="13" t="s">
         <v>83</v>
       </c>
     </row>
@@ -6828,7 +6829,7 @@
       <c r="A42">
         <v>50</v>
       </c>
-      <c r="B42" s="14" t="s">
+      <c r="B42" s="13" t="s">
         <v>84</v>
       </c>
     </row>
@@ -6836,7 +6837,7 @@
       <c r="A43">
         <v>52</v>
       </c>
-      <c r="B43" s="14" t="s">
+      <c r="B43" s="13" t="s">
         <v>85</v>
       </c>
     </row>
@@ -6844,7 +6845,7 @@
       <c r="A44">
         <v>53</v>
       </c>
-      <c r="B44" s="14" t="s">
+      <c r="B44" s="13" t="s">
         <v>86</v>
       </c>
     </row>
@@ -6852,7 +6853,7 @@
       <c r="A45">
         <v>54</v>
       </c>
-      <c r="B45" s="14" t="s">
+      <c r="B45" s="13" t="s">
         <v>87</v>
       </c>
     </row>
@@ -6860,7 +6861,7 @@
       <c r="A46">
         <v>55</v>
       </c>
-      <c r="B46" s="14" t="s">
+      <c r="B46" s="13" t="s">
         <v>56</v>
       </c>
     </row>
@@ -6868,7 +6869,7 @@
       <c r="A47">
         <v>56</v>
       </c>
-      <c r="B47" s="14" t="s">
+      <c r="B47" s="13" t="s">
         <v>88</v>
       </c>
     </row>
@@ -6876,7 +6877,7 @@
       <c r="A48">
         <v>57</v>
       </c>
-      <c r="B48" s="14" t="s">
+      <c r="B48" s="13" t="s">
         <v>89</v>
       </c>
     </row>
@@ -6884,7 +6885,7 @@
       <c r="A49">
         <v>58</v>
       </c>
-      <c r="B49" s="14" t="s">
+      <c r="B49" s="13" t="s">
         <v>90</v>
       </c>
     </row>
@@ -6892,7 +6893,7 @@
       <c r="A50">
         <v>59</v>
       </c>
-      <c r="B50" s="14" t="s">
+      <c r="B50" s="13" t="s">
         <v>91</v>
       </c>
     </row>
@@ -6900,7 +6901,7 @@
       <c r="A51">
         <v>60</v>
       </c>
-      <c r="B51" s="14" t="s">
+      <c r="B51" s="13" t="s">
         <v>92</v>
       </c>
     </row>
@@ -6908,7 +6909,7 @@
       <c r="A52">
         <v>61</v>
       </c>
-      <c r="B52" s="14" t="s">
+      <c r="B52" s="13" t="s">
         <v>93</v>
       </c>
     </row>
@@ -6916,7 +6917,7 @@
       <c r="A53">
         <v>63</v>
       </c>
-      <c r="B53" s="14" t="s">
+      <c r="B53" s="13" t="s">
         <v>94</v>
       </c>
     </row>
@@ -6924,7 +6925,7 @@
       <c r="A54">
         <v>64</v>
       </c>
-      <c r="B54" s="14" t="s">
+      <c r="B54" s="13" t="s">
         <v>95</v>
       </c>
     </row>
@@ -6932,7 +6933,7 @@
       <c r="A55">
         <v>65</v>
       </c>
-      <c r="B55" s="14" t="s">
+      <c r="B55" s="13" t="s">
         <v>62</v>
       </c>
     </row>
@@ -6940,7 +6941,7 @@
       <c r="A56">
         <v>66</v>
       </c>
-      <c r="B56" s="14" t="s">
+      <c r="B56" s="13" t="s">
         <v>96</v>
       </c>
     </row>
@@ -6948,7 +6949,7 @@
       <c r="A57">
         <v>67</v>
       </c>
-      <c r="B57" s="14" t="s">
+      <c r="B57" s="13" t="s">
         <v>97</v>
       </c>
     </row>
@@ -6956,7 +6957,7 @@
       <c r="A58">
         <v>68</v>
       </c>
-      <c r="B58" s="14" t="s">
+      <c r="B58" s="13" t="s">
         <v>98</v>
       </c>
     </row>
@@ -6964,7 +6965,7 @@
       <c r="A59">
         <v>69</v>
       </c>
-      <c r="B59" s="14" t="s">
+      <c r="B59" s="13" t="s">
         <v>99</v>
       </c>
     </row>
@@ -6972,7 +6973,7 @@
       <c r="A60">
         <v>70</v>
       </c>
-      <c r="B60" s="14" t="s">
+      <c r="B60" s="13" t="s">
         <v>54</v>
       </c>
     </row>
@@ -6980,7 +6981,7 @@
       <c r="A61">
         <v>72</v>
       </c>
-      <c r="B61" s="14" t="s">
+      <c r="B61" s="13" t="s">
         <v>100</v>
       </c>
     </row>
@@ -6988,7 +6989,7 @@
       <c r="A62">
         <v>73</v>
       </c>
-      <c r="B62" s="14" t="s">
+      <c r="B62" s="13" t="s">
         <v>101</v>
       </c>
     </row>
@@ -6996,7 +6997,7 @@
       <c r="A63">
         <v>74</v>
       </c>
-      <c r="B63" s="14" t="s">
+      <c r="B63" s="13" t="s">
         <v>102</v>
       </c>
     </row>
@@ -7004,7 +7005,7 @@
       <c r="A64">
         <v>75</v>
       </c>
-      <c r="B64" s="14" t="s">
+      <c r="B64" s="13" t="s">
         <v>103</v>
       </c>
     </row>
@@ -7012,7 +7013,7 @@
       <c r="A65">
         <v>79</v>
       </c>
-      <c r="B65" s="14" t="s">
+      <c r="B65" s="13" t="s">
         <v>104</v>
       </c>
     </row>
@@ -7020,7 +7021,7 @@
       <c r="A66">
         <v>80</v>
       </c>
-      <c r="B66" s="14" t="s">
+      <c r="B66" s="13" t="s">
         <v>105</v>
       </c>
     </row>
@@ -7028,7 +7029,7 @@
       <c r="A67">
         <v>81</v>
       </c>
-      <c r="B67" s="14" t="s">
+      <c r="B67" s="13" t="s">
         <v>106</v>
       </c>
     </row>
@@ -7036,7 +7037,7 @@
       <c r="A68">
         <v>83</v>
       </c>
-      <c r="B68" s="14" t="s">
+      <c r="B68" s="13" t="s">
         <v>54</v>
       </c>
     </row>
@@ -7044,7 +7045,7 @@
       <c r="A69">
         <v>84</v>
       </c>
-      <c r="B69" s="14" t="s">
+      <c r="B69" s="13" t="s">
         <v>107</v>
       </c>
     </row>
@@ -7052,7 +7053,7 @@
       <c r="A70">
         <v>85</v>
       </c>
-      <c r="B70" s="14" t="s">
+      <c r="B70" s="13" t="s">
         <v>108</v>
       </c>
     </row>
@@ -7060,7 +7061,7 @@
       <c r="A71">
         <v>86</v>
       </c>
-      <c r="B71" s="14" t="s">
+      <c r="B71" s="13" t="s">
         <v>56</v>
       </c>
     </row>
@@ -7068,7 +7069,7 @@
       <c r="A72">
         <v>87</v>
       </c>
-      <c r="B72" s="14" t="s">
+      <c r="B72" s="13" t="s">
         <v>56</v>
       </c>
     </row>
@@ -7076,7 +7077,7 @@
       <c r="A73">
         <v>88</v>
       </c>
-      <c r="B73" s="14" t="s">
+      <c r="B73" s="13" t="s">
         <v>54</v>
       </c>
     </row>
@@ -7084,7 +7085,7 @@
       <c r="A74">
         <v>89</v>
       </c>
-      <c r="B74" s="14" t="s">
+      <c r="B74" s="13" t="s">
         <v>109</v>
       </c>
     </row>
@@ -7092,7 +7093,7 @@
       <c r="A75">
         <v>90</v>
       </c>
-      <c r="B75" s="14" t="s">
+      <c r="B75" s="13" t="s">
         <v>110</v>
       </c>
     </row>
@@ -7100,7 +7101,7 @@
       <c r="A76">
         <v>91</v>
       </c>
-      <c r="B76" s="14" t="s">
+      <c r="B76" s="13" t="s">
         <v>99</v>
       </c>
     </row>
@@ -7108,7 +7109,7 @@
       <c r="A77">
         <v>93</v>
       </c>
-      <c r="B77" s="14" t="s">
+      <c r="B77" s="13" t="s">
         <v>111</v>
       </c>
     </row>
@@ -7116,7 +7117,7 @@
       <c r="A78">
         <v>95</v>
       </c>
-      <c r="B78" s="14" t="s">
+      <c r="B78" s="13" t="s">
         <v>112</v>
       </c>
     </row>
@@ -7124,7 +7125,7 @@
       <c r="A79">
         <v>97</v>
       </c>
-      <c r="B79" s="14" t="s">
+      <c r="B79" s="13" t="s">
         <v>113</v>
       </c>
     </row>
@@ -7132,7 +7133,7 @@
       <c r="A80">
         <v>98</v>
       </c>
-      <c r="B80" s="14" t="s">
+      <c r="B80" s="13" t="s">
         <v>114</v>
       </c>
     </row>
@@ -7140,7 +7141,7 @@
       <c r="A81">
         <v>99</v>
       </c>
-      <c r="B81" s="14" t="s">
+      <c r="B81" s="13" t="s">
         <v>115</v>
       </c>
     </row>
@@ -7148,7 +7149,7 @@
       <c r="A82">
         <v>100</v>
       </c>
-      <c r="B82" s="14" t="s">
+      <c r="B82" s="13" t="s">
         <v>116</v>
       </c>
     </row>
@@ -7156,7 +7157,7 @@
       <c r="A83">
         <v>101</v>
       </c>
-      <c r="B83" s="14" t="s">
+      <c r="B83" s="13" t="s">
         <v>117</v>
       </c>
     </row>
@@ -7164,7 +7165,7 @@
       <c r="A84">
         <v>102</v>
       </c>
-      <c r="B84" s="14" t="s">
+      <c r="B84" s="13" t="s">
         <v>118</v>
       </c>
     </row>
@@ -7172,7 +7173,7 @@
       <c r="A85">
         <v>103</v>
       </c>
-      <c r="B85" s="14" t="s">
+      <c r="B85" s="13" t="s">
         <v>119</v>
       </c>
     </row>
@@ -7180,7 +7181,7 @@
       <c r="A86">
         <v>104</v>
       </c>
-      <c r="B86" s="14" t="s">
+      <c r="B86" s="13" t="s">
         <v>120</v>
       </c>
     </row>
@@ -7188,7 +7189,7 @@
       <c r="A87">
         <v>105</v>
       </c>
-      <c r="B87" s="14" t="s">
+      <c r="B87" s="13" t="s">
         <v>121</v>
       </c>
     </row>
@@ -7196,7 +7197,7 @@
       <c r="A88">
         <v>106</v>
       </c>
-      <c r="B88" s="14" t="s">
+      <c r="B88" s="13" t="s">
         <v>122</v>
       </c>
     </row>
@@ -7204,7 +7205,7 @@
       <c r="A89">
         <v>107</v>
       </c>
-      <c r="B89" s="14" t="s">
+      <c r="B89" s="13" t="s">
         <v>123</v>
       </c>
     </row>
@@ -7212,7 +7213,7 @@
       <c r="A90">
         <v>108</v>
       </c>
-      <c r="B90" s="14" t="s">
+      <c r="B90" s="13" t="s">
         <v>124</v>
       </c>
     </row>
@@ -7220,7 +7221,7 @@
       <c r="A91">
         <v>109</v>
       </c>
-      <c r="B91" s="14" t="s">
+      <c r="B91" s="13" t="s">
         <v>125</v>
       </c>
     </row>
@@ -7228,7 +7229,7 @@
       <c r="A92">
         <v>110</v>
       </c>
-      <c r="B92" s="14" t="s">
+      <c r="B92" s="13" t="s">
         <v>126</v>
       </c>
     </row>
@@ -7236,7 +7237,7 @@
       <c r="A93">
         <v>112</v>
       </c>
-      <c r="B93" s="14" t="s">
+      <c r="B93" s="13" t="s">
         <v>127</v>
       </c>
     </row>
@@ -7244,7 +7245,7 @@
       <c r="A94">
         <v>113</v>
       </c>
-      <c r="B94" s="14" t="s">
+      <c r="B94" s="13" t="s">
         <v>128</v>
       </c>
     </row>
@@ -7252,7 +7253,7 @@
       <c r="A95">
         <v>114</v>
       </c>
-      <c r="B95" s="14" t="s">
+      <c r="B95" s="13" t="s">
         <v>129</v>
       </c>
     </row>
@@ -7260,7 +7261,7 @@
       <c r="A96">
         <v>115</v>
       </c>
-      <c r="B96" s="14" t="s">
+      <c r="B96" s="13" t="s">
         <v>130</v>
       </c>
     </row>
@@ -7268,7 +7269,7 @@
       <c r="A97">
         <v>116</v>
       </c>
-      <c r="B97" s="14" t="s">
+      <c r="B97" s="13" t="s">
         <v>131</v>
       </c>
     </row>
@@ -7276,7 +7277,7 @@
       <c r="A98">
         <v>117</v>
       </c>
-      <c r="B98" s="14" t="s">
+      <c r="B98" s="13" t="s">
         <v>132</v>
       </c>
     </row>
@@ -7284,7 +7285,7 @@
       <c r="A99">
         <v>118</v>
       </c>
-      <c r="B99" s="14" t="s">
+      <c r="B99" s="13" t="s">
         <v>60</v>
       </c>
     </row>
@@ -7292,7 +7293,7 @@
       <c r="A100">
         <v>119</v>
       </c>
-      <c r="B100" s="14" t="s">
+      <c r="B100" s="13" t="s">
         <v>94</v>
       </c>
     </row>
@@ -7300,7 +7301,7 @@
       <c r="A101">
         <v>120</v>
       </c>
-      <c r="B101" s="14" t="s">
+      <c r="B101" s="13" t="s">
         <v>133</v>
       </c>
     </row>
@@ -7308,7 +7309,7 @@
       <c r="A102">
         <v>121</v>
       </c>
-      <c r="B102" s="14" t="s">
+      <c r="B102" s="13" t="s">
         <v>134</v>
       </c>
     </row>
@@ -7316,7 +7317,7 @@
       <c r="A103">
         <v>122</v>
       </c>
-      <c r="B103" s="14" t="s">
+      <c r="B103" s="13" t="s">
         <v>135</v>
       </c>
     </row>
@@ -7324,7 +7325,7 @@
       <c r="A104">
         <v>123</v>
       </c>
-      <c r="B104" s="14" t="s">
+      <c r="B104" s="13" t="s">
         <v>136</v>
       </c>
     </row>
@@ -7332,7 +7333,7 @@
       <c r="A105">
         <v>124</v>
       </c>
-      <c r="B105" s="14" t="s">
+      <c r="B105" s="13" t="s">
         <v>137</v>
       </c>
     </row>
@@ -7340,7 +7341,7 @@
       <c r="A106">
         <v>125</v>
       </c>
-      <c r="B106" s="14" t="s">
+      <c r="B106" s="13" t="s">
         <v>138</v>
       </c>
     </row>
@@ -7348,7 +7349,7 @@
       <c r="A107">
         <v>126</v>
       </c>
-      <c r="B107" s="14" t="s">
+      <c r="B107" s="13" t="s">
         <v>94</v>
       </c>
     </row>
@@ -7356,7 +7357,7 @@
       <c r="A108">
         <v>127</v>
       </c>
-      <c r="B108" s="14" t="s">
+      <c r="B108" s="13" t="s">
         <v>54</v>
       </c>
     </row>
@@ -7364,7 +7365,7 @@
       <c r="A109">
         <v>129</v>
       </c>
-      <c r="B109" s="14" t="s">
+      <c r="B109" s="13" t="s">
         <v>139</v>
       </c>
     </row>
@@ -7372,7 +7373,7 @@
       <c r="A110">
         <v>130</v>
       </c>
-      <c r="B110" s="14" t="s">
+      <c r="B110" s="13" t="s">
         <v>140</v>
       </c>
     </row>
@@ -7380,7 +7381,7 @@
       <c r="A111">
         <v>131</v>
       </c>
-      <c r="B111" s="14" t="s">
+      <c r="B111" s="13" t="s">
         <v>141</v>
       </c>
     </row>
@@ -7388,7 +7389,7 @@
       <c r="A112">
         <v>132</v>
       </c>
-      <c r="B112" s="14" t="s">
+      <c r="B112" s="13" t="s">
         <v>80</v>
       </c>
     </row>
@@ -7396,7 +7397,7 @@
       <c r="A113">
         <v>133</v>
       </c>
-      <c r="B113" s="14" t="s">
+      <c r="B113" s="13" t="s">
         <v>142</v>
       </c>
     </row>
@@ -7404,7 +7405,7 @@
       <c r="A114">
         <v>134</v>
       </c>
-      <c r="B114" s="14" t="s">
+      <c r="B114" s="13" t="s">
         <v>122</v>
       </c>
     </row>
@@ -7412,7 +7413,7 @@
       <c r="A115">
         <v>135</v>
       </c>
-      <c r="B115" s="14" t="s">
+      <c r="B115" s="13" t="s">
         <v>56</v>
       </c>
     </row>
@@ -7420,7 +7421,7 @@
       <c r="A116">
         <v>136</v>
       </c>
-      <c r="B116" s="14" t="s">
+      <c r="B116" s="13" t="s">
         <v>143</v>
       </c>
     </row>
@@ -7428,7 +7429,7 @@
       <c r="A117">
         <v>137</v>
       </c>
-      <c r="B117" s="14" t="s">
+      <c r="B117" s="13" t="s">
         <v>80</v>
       </c>
     </row>
@@ -7436,7 +7437,7 @@
       <c r="A118">
         <v>138</v>
       </c>
-      <c r="B118" s="14" t="s">
+      <c r="B118" s="13" t="s">
         <v>144</v>
       </c>
     </row>
@@ -7444,7 +7445,7 @@
       <c r="A119">
         <v>141</v>
       </c>
-      <c r="B119" s="14" t="s">
+      <c r="B119" s="13" t="s">
         <v>145</v>
       </c>
     </row>
@@ -7452,7 +7453,7 @@
       <c r="A120">
         <v>142</v>
       </c>
-      <c r="B120" s="14" t="s">
+      <c r="B120" s="13" t="s">
         <v>56</v>
       </c>
     </row>
@@ -7460,7 +7461,7 @@
       <c r="A121">
         <v>143</v>
       </c>
-      <c r="B121" s="14" t="s">
+      <c r="B121" s="13" t="s">
         <v>146</v>
       </c>
     </row>
@@ -7468,7 +7469,7 @@
       <c r="A122">
         <v>144</v>
       </c>
-      <c r="B122" s="14" t="s">
+      <c r="B122" s="13" t="s">
         <v>147</v>
       </c>
     </row>
@@ -7476,7 +7477,7 @@
       <c r="A123">
         <v>145</v>
       </c>
-      <c r="B123" s="14" t="s">
+      <c r="B123" s="13" t="s">
         <v>54</v>
       </c>
     </row>
@@ -7484,7 +7485,7 @@
       <c r="A124">
         <v>146</v>
       </c>
-      <c r="B124" s="14" t="s">
+      <c r="B124" s="13" t="s">
         <v>148</v>
       </c>
     </row>
@@ -7492,7 +7493,7 @@
       <c r="A125">
         <v>147</v>
       </c>
-      <c r="B125" s="14" t="s">
+      <c r="B125" s="13" t="s">
         <v>149</v>
       </c>
     </row>
@@ -7500,7 +7501,7 @@
       <c r="A126">
         <v>148</v>
       </c>
-      <c r="B126" s="14" t="s">
+      <c r="B126" s="13" t="s">
         <v>54</v>
       </c>
     </row>
@@ -7508,7 +7509,7 @@
       <c r="A127">
         <v>149</v>
       </c>
-      <c r="B127" s="14" t="s">
+      <c r="B127" s="13" t="s">
         <v>150</v>
       </c>
     </row>
@@ -7516,7 +7517,7 @@
       <c r="A128">
         <v>150</v>
       </c>
-      <c r="B128" s="14" t="s">
+      <c r="B128" s="13" t="s">
         <v>151</v>
       </c>
     </row>
@@ -7524,7 +7525,7 @@
       <c r="A129">
         <v>151</v>
       </c>
-      <c r="B129" s="14" t="s">
+      <c r="B129" s="13" t="s">
         <v>56</v>
       </c>
     </row>
@@ -7532,7 +7533,7 @@
       <c r="A130">
         <v>153</v>
       </c>
-      <c r="B130" s="14" t="s">
+      <c r="B130" s="13" t="s">
         <v>54</v>
       </c>
     </row>
@@ -7540,7 +7541,7 @@
       <c r="A131">
         <v>154</v>
       </c>
-      <c r="B131" s="14" t="s">
+      <c r="B131" s="13" t="s">
         <v>105</v>
       </c>
     </row>
@@ -7548,7 +7549,7 @@
       <c r="A132">
         <v>155</v>
       </c>
-      <c r="B132" s="14" t="s">
+      <c r="B132" s="13" t="s">
         <v>152</v>
       </c>
     </row>
@@ -7556,7 +7557,7 @@
       <c r="A133">
         <v>156</v>
       </c>
-      <c r="B133" s="14" t="s">
+      <c r="B133" s="13" t="s">
         <v>153</v>
       </c>
     </row>
@@ -7564,7 +7565,7 @@
       <c r="A134">
         <v>157</v>
       </c>
-      <c r="B134" s="14" t="s">
+      <c r="B134" s="13" t="s">
         <v>154</v>
       </c>
     </row>
@@ -7572,7 +7573,7 @@
       <c r="A135">
         <v>158</v>
       </c>
-      <c r="B135" s="14" t="s">
+      <c r="B135" s="13" t="s">
         <v>155</v>
       </c>
     </row>
@@ -7580,7 +7581,7 @@
       <c r="A136">
         <v>159</v>
       </c>
-      <c r="B136" s="14" t="s">
+      <c r="B136" s="13" t="s">
         <v>156</v>
       </c>
     </row>
@@ -7588,7 +7589,7 @@
       <c r="A137">
         <v>160</v>
       </c>
-      <c r="B137" s="14" t="s">
+      <c r="B137" s="13" t="s">
         <v>54</v>
       </c>
     </row>
@@ -7596,7 +7597,7 @@
       <c r="A138">
         <v>161</v>
       </c>
-      <c r="B138" s="14" t="s">
+      <c r="B138" s="13" t="s">
         <v>54</v>
       </c>
     </row>
@@ -7604,7 +7605,7 @@
       <c r="A139">
         <v>162</v>
       </c>
-      <c r="B139" s="14" t="s">
+      <c r="B139" s="13" t="s">
         <v>157</v>
       </c>
     </row>
@@ -7612,7 +7613,7 @@
       <c r="A140">
         <v>165</v>
       </c>
-      <c r="B140" s="14" t="s">
+      <c r="B140" s="13" t="s">
         <v>158</v>
       </c>
     </row>
@@ -7620,7 +7621,7 @@
       <c r="A141">
         <v>166</v>
       </c>
-      <c r="B141" s="14" t="s">
+      <c r="B141" s="13" t="s">
         <v>159</v>
       </c>
     </row>
@@ -7628,7 +7629,7 @@
       <c r="A142">
         <v>167</v>
       </c>
-      <c r="B142" s="14" t="s">
+      <c r="B142" s="13" t="s">
         <v>160</v>
       </c>
     </row>
@@ -7636,7 +7637,7 @@
       <c r="A143">
         <v>168</v>
       </c>
-      <c r="B143" s="14" t="s">
+      <c r="B143" s="13" t="s">
         <v>161</v>
       </c>
     </row>
@@ -7644,7 +7645,7 @@
       <c r="A144">
         <v>169</v>
       </c>
-      <c r="B144" s="14" t="s">
+      <c r="B144" s="13" t="s">
         <v>162</v>
       </c>
     </row>
@@ -7652,7 +7653,7 @@
       <c r="A145">
         <v>170</v>
       </c>
-      <c r="B145" s="14" t="s">
+      <c r="B145" s="13" t="s">
         <v>163</v>
       </c>
     </row>
@@ -7660,7 +7661,7 @@
       <c r="A146">
         <v>171</v>
       </c>
-      <c r="B146" s="14" t="s">
+      <c r="B146" s="13" t="s">
         <v>164</v>
       </c>
     </row>
@@ -7668,7 +7669,7 @@
       <c r="A147">
         <v>173</v>
       </c>
-      <c r="B147" s="14" t="s">
+      <c r="B147" s="13" t="s">
         <v>165</v>
       </c>
     </row>
@@ -7676,7 +7677,7 @@
       <c r="A148">
         <v>174</v>
       </c>
-      <c r="B148" s="14" t="s">
+      <c r="B148" s="13" t="s">
         <v>166</v>
       </c>
     </row>
@@ -7684,7 +7685,7 @@
       <c r="A149">
         <v>175</v>
       </c>
-      <c r="B149" s="14" t="s">
+      <c r="B149" s="13" t="s">
         <v>167</v>
       </c>
     </row>
@@ -7692,7 +7693,7 @@
       <c r="A150">
         <v>176</v>
       </c>
-      <c r="B150" s="14" t="s">
+      <c r="B150" s="13" t="s">
         <v>168</v>
       </c>
     </row>
@@ -7700,7 +7701,7 @@
       <c r="A151">
         <v>177</v>
       </c>
-      <c r="B151" s="14" t="s">
+      <c r="B151" s="13" t="s">
         <v>56</v>
       </c>
     </row>
@@ -7708,7 +7709,7 @@
       <c r="A152">
         <v>178</v>
       </c>
-      <c r="B152" s="14" t="s">
+      <c r="B152" s="13" t="s">
         <v>169</v>
       </c>
     </row>
@@ -7716,7 +7717,7 @@
       <c r="A153">
         <v>179</v>
       </c>
-      <c r="B153" s="14" t="s">
+      <c r="B153" s="13" t="s">
         <v>60</v>
       </c>
     </row>
@@ -7724,7 +7725,7 @@
       <c r="A154">
         <v>181</v>
       </c>
-      <c r="B154" s="14" t="s">
+      <c r="B154" s="13" t="s">
         <v>170</v>
       </c>
     </row>
@@ -7732,7 +7733,7 @@
       <c r="A155">
         <v>183</v>
       </c>
-      <c r="B155" s="14" t="s">
+      <c r="B155" s="13" t="s">
         <v>171</v>
       </c>
     </row>
@@ -7740,7 +7741,7 @@
       <c r="A156">
         <v>184</v>
       </c>
-      <c r="B156" s="14" t="s">
+      <c r="B156" s="13" t="s">
         <v>172</v>
       </c>
     </row>
@@ -7748,7 +7749,7 @@
       <c r="A157">
         <v>185</v>
       </c>
-      <c r="B157" s="14" t="s">
+      <c r="B157" s="13" t="s">
         <v>173</v>
       </c>
     </row>
@@ -7756,7 +7757,7 @@
       <c r="A158">
         <v>187</v>
       </c>
-      <c r="B158" s="14" t="s">
+      <c r="B158" s="13" t="s">
         <v>62</v>
       </c>
     </row>
@@ -7764,7 +7765,7 @@
       <c r="A159">
         <v>188</v>
       </c>
-      <c r="B159" s="14" t="s">
+      <c r="B159" s="13" t="s">
         <v>56</v>
       </c>
     </row>
@@ -7772,7 +7773,7 @@
       <c r="A160">
         <v>189</v>
       </c>
-      <c r="B160" s="14" t="s">
+      <c r="B160" s="13" t="s">
         <v>56</v>
       </c>
     </row>
@@ -7780,7 +7781,7 @@
       <c r="A161">
         <v>190</v>
       </c>
-      <c r="B161" s="14" t="s">
+      <c r="B161" s="13" t="s">
         <v>62</v>
       </c>
     </row>
@@ -7788,7 +7789,7 @@
       <c r="A162">
         <v>193</v>
       </c>
-      <c r="B162" s="14" t="s">
+      <c r="B162" s="13" t="s">
         <v>62</v>
       </c>
     </row>
@@ -7796,7 +7797,7 @@
       <c r="A163">
         <v>194</v>
       </c>
-      <c r="B163" s="14" t="s">
+      <c r="B163" s="13" t="s">
         <v>174</v>
       </c>
     </row>
@@ -7804,7 +7805,7 @@
       <c r="A164">
         <v>195</v>
       </c>
-      <c r="B164" s="14" t="s">
+      <c r="B164" s="13" t="s">
         <v>175</v>
       </c>
     </row>
@@ -7812,7 +7813,7 @@
       <c r="A165">
         <v>196</v>
       </c>
-      <c r="B165" s="14" t="s">
+      <c r="B165" s="13" t="s">
         <v>80</v>
       </c>
     </row>
@@ -7820,7 +7821,7 @@
       <c r="A166">
         <v>197</v>
       </c>
-      <c r="B166" s="14" t="s">
+      <c r="B166" s="13" t="s">
         <v>176</v>
       </c>
     </row>
@@ -7828,7 +7829,7 @@
       <c r="A167">
         <v>198</v>
       </c>
-      <c r="B167" s="14" t="s">
+      <c r="B167" s="13" t="s">
         <v>177</v>
       </c>
     </row>
@@ -7836,7 +7837,7 @@
       <c r="A168">
         <v>199</v>
       </c>
-      <c r="B168" s="14" t="s">
+      <c r="B168" s="13" t="s">
         <v>178</v>
       </c>
     </row>
@@ -7844,7 +7845,7 @@
       <c r="A169">
         <v>200</v>
       </c>
-      <c r="B169" s="14" t="s">
+      <c r="B169" s="13" t="s">
         <v>69</v>
       </c>
     </row>
@@ -7852,7 +7853,7 @@
       <c r="A170">
         <v>201</v>
       </c>
-      <c r="B170" s="14" t="s">
+      <c r="B170" s="13" t="s">
         <v>179</v>
       </c>
     </row>
@@ -7860,7 +7861,7 @@
       <c r="A171">
         <v>202</v>
       </c>
-      <c r="B171" s="14" t="s">
+      <c r="B171" s="13" t="s">
         <v>180</v>
       </c>
     </row>
@@ -7868,7 +7869,7 @@
       <c r="A172">
         <v>203</v>
       </c>
-      <c r="B172" s="14" t="s">
+      <c r="B172" s="13" t="s">
         <v>181</v>
       </c>
     </row>
@@ -7876,7 +7877,7 @@
       <c r="A173">
         <v>205</v>
       </c>
-      <c r="B173" s="14" t="s">
+      <c r="B173" s="13" t="s">
         <v>146</v>
       </c>
     </row>
@@ -7884,7 +7885,7 @@
       <c r="A174">
         <v>206</v>
       </c>
-      <c r="B174" s="14" t="s">
+      <c r="B174" s="13" t="s">
         <v>182</v>
       </c>
     </row>
@@ -7892,7 +7893,7 @@
       <c r="A175">
         <v>207</v>
       </c>
-      <c r="B175" s="14" t="s">
+      <c r="B175" s="13" t="s">
         <v>99</v>
       </c>
     </row>
@@ -7900,7 +7901,7 @@
       <c r="A176">
         <v>208</v>
       </c>
-      <c r="B176" s="14" t="s">
+      <c r="B176" s="13" t="s">
         <v>183</v>
       </c>
     </row>
@@ -7908,7 +7909,7 @@
       <c r="A177">
         <v>209</v>
       </c>
-      <c r="B177" s="14" t="s">
+      <c r="B177" s="13" t="s">
         <v>184</v>
       </c>
     </row>
@@ -7916,7 +7917,7 @@
       <c r="A178">
         <v>210</v>
       </c>
-      <c r="B178" s="14" t="s">
+      <c r="B178" s="13" t="s">
         <v>185</v>
       </c>
     </row>
@@ -7924,7 +7925,7 @@
       <c r="A179">
         <v>211</v>
       </c>
-      <c r="B179" s="14" t="s">
+      <c r="B179" s="13" t="s">
         <v>138</v>
       </c>
     </row>
@@ -7932,7 +7933,7 @@
       <c r="A180">
         <v>212</v>
       </c>
-      <c r="B180" s="14" t="s">
+      <c r="B180" s="13" t="s">
         <v>186</v>
       </c>
     </row>
@@ -7940,7 +7941,7 @@
       <c r="A181">
         <v>213</v>
       </c>
-      <c r="B181" s="14" t="s">
+      <c r="B181" s="13" t="s">
         <v>187</v>
       </c>
     </row>
@@ -7948,7 +7949,7 @@
       <c r="A182">
         <v>215</v>
       </c>
-      <c r="B182" s="14" t="s">
+      <c r="B182" s="13" t="s">
         <v>188</v>
       </c>
     </row>
@@ -7956,7 +7957,7 @@
       <c r="A183">
         <v>216</v>
       </c>
-      <c r="B183" s="14" t="s">
+      <c r="B183" s="13" t="s">
         <v>189</v>
       </c>
     </row>
@@ -7964,7 +7965,7 @@
       <c r="A184">
         <v>217</v>
       </c>
-      <c r="B184" s="14" t="s">
+      <c r="B184" s="13" t="s">
         <v>190</v>
       </c>
     </row>
@@ -7972,7 +7973,7 @@
       <c r="A185">
         <v>218</v>
       </c>
-      <c r="B185" s="14" t="s">
+      <c r="B185" s="13" t="s">
         <v>54</v>
       </c>
     </row>
@@ -7980,7 +7981,7 @@
       <c r="A186">
         <v>219</v>
       </c>
-      <c r="B186" s="14" t="s">
+      <c r="B186" s="13" t="s">
         <v>54</v>
       </c>
     </row>
@@ -7988,7 +7989,7 @@
       <c r="A187">
         <v>220</v>
       </c>
-      <c r="B187" s="14" t="s">
+      <c r="B187" s="13" t="s">
         <v>56</v>
       </c>
     </row>
@@ -7996,7 +7997,7 @@
       <c r="A188">
         <v>221</v>
       </c>
-      <c r="B188" s="14" t="s">
+      <c r="B188" s="13" t="s">
         <v>60</v>
       </c>
     </row>
@@ -8004,7 +8005,7 @@
       <c r="A189">
         <v>222</v>
       </c>
-      <c r="B189" s="14" t="s">
+      <c r="B189" s="13" t="s">
         <v>191</v>
       </c>
     </row>
@@ -8012,7 +8013,7 @@
       <c r="A190">
         <v>223</v>
       </c>
-      <c r="B190" s="14" t="s">
+      <c r="B190" s="13" t="s">
         <v>192</v>
       </c>
     </row>
@@ -8020,7 +8021,7 @@
       <c r="A191">
         <v>225</v>
       </c>
-      <c r="B191" s="14" t="s">
+      <c r="B191" s="13" t="s">
         <v>60</v>
       </c>
     </row>
@@ -8028,7 +8029,7 @@
       <c r="A192">
         <v>226</v>
       </c>
-      <c r="B192" s="14" t="s">
+      <c r="B192" s="13" t="s">
         <v>193</v>
       </c>
     </row>
@@ -8036,7 +8037,7 @@
       <c r="A193">
         <v>227</v>
       </c>
-      <c r="B193" s="14" t="s">
+      <c r="B193" s="13" t="s">
         <v>54</v>
       </c>
     </row>
@@ -8044,7 +8045,7 @@
       <c r="A194">
         <v>229</v>
       </c>
-      <c r="B194" s="14" t="s">
+      <c r="B194" s="13" t="s">
         <v>95</v>
       </c>
     </row>
@@ -8052,7 +8053,7 @@
       <c r="A195">
         <v>230</v>
       </c>
-      <c r="B195" s="14" t="s">
+      <c r="B195" s="13" t="s">
         <v>194</v>
       </c>
     </row>
@@ -8060,7 +8061,7 @@
       <c r="A196">
         <v>231</v>
       </c>
-      <c r="B196" s="14" t="s">
+      <c r="B196" s="13" t="s">
         <v>195</v>
       </c>
     </row>
@@ -8068,7 +8069,7 @@
       <c r="A197">
         <v>233</v>
       </c>
-      <c r="B197" s="14" t="s">
+      <c r="B197" s="13" t="s">
         <v>196</v>
       </c>
     </row>
@@ -8076,7 +8077,7 @@
       <c r="A198">
         <v>234</v>
       </c>
-      <c r="B198" s="14" t="s">
+      <c r="B198" s="13" t="s">
         <v>197</v>
       </c>
     </row>
@@ -8084,7 +8085,7 @@
       <c r="A199">
         <v>235</v>
       </c>
-      <c r="B199" s="14" t="s">
+      <c r="B199" s="13" t="s">
         <v>198</v>
       </c>
     </row>
@@ -8092,7 +8093,7 @@
       <c r="A200">
         <v>236</v>
       </c>
-      <c r="B200" s="14" t="s">
+      <c r="B200" s="13" t="s">
         <v>199</v>
       </c>
     </row>
@@ -8100,7 +8101,7 @@
       <c r="A201">
         <v>237</v>
       </c>
-      <c r="B201" s="14" t="s">
+      <c r="B201" s="13" t="s">
         <v>200</v>
       </c>
     </row>
@@ -8108,7 +8109,7 @@
       <c r="A202">
         <v>238</v>
       </c>
-      <c r="B202" s="14" t="s">
+      <c r="B202" s="13" t="s">
         <v>201</v>
       </c>
     </row>
@@ -8116,7 +8117,7 @@
       <c r="A203">
         <v>239</v>
       </c>
-      <c r="B203" s="14" t="s">
+      <c r="B203" s="13" t="s">
         <v>56</v>
       </c>
     </row>
@@ -8124,7 +8125,7 @@
       <c r="A204">
         <v>240</v>
       </c>
-      <c r="B204" s="14" t="s">
+      <c r="B204" s="13" t="s">
         <v>56</v>
       </c>
     </row>
@@ -8132,7 +8133,7 @@
       <c r="A205">
         <v>244</v>
       </c>
-      <c r="B205" s="14" t="s">
+      <c r="B205" s="13" t="s">
         <v>54</v>
       </c>
     </row>
@@ -8140,7 +8141,7 @@
       <c r="A206">
         <v>249</v>
       </c>
-      <c r="B206" s="14" t="s">
+      <c r="B206" s="13" t="s">
         <v>202</v>
       </c>
     </row>
@@ -8148,7 +8149,7 @@
       <c r="A207">
         <v>250</v>
       </c>
-      <c r="B207" s="14" t="s">
+      <c r="B207" s="13" t="s">
         <v>203</v>
       </c>
     </row>
@@ -8156,7 +8157,7 @@
       <c r="A208">
         <v>251</v>
       </c>
-      <c r="B208" s="14" t="s">
+      <c r="B208" s="13" t="s">
         <v>204</v>
       </c>
     </row>
@@ -8164,7 +8165,7 @@
       <c r="A209">
         <v>255</v>
       </c>
-      <c r="B209" s="14" t="s">
+      <c r="B209" s="13" t="s">
         <v>205</v>
       </c>
     </row>
@@ -8172,7 +8173,7 @@
       <c r="A210">
         <v>256</v>
       </c>
-      <c r="B210" s="14" t="s">
+      <c r="B210" s="13" t="s">
         <v>205</v>
       </c>
     </row>
@@ -8180,7 +8181,7 @@
       <c r="A211">
         <v>272</v>
       </c>
-      <c r="B211" s="14" t="s">
+      <c r="B211" s="13" t="s">
         <v>105</v>
       </c>
     </row>
@@ -8188,7 +8189,7 @@
       <c r="A212">
         <v>273</v>
       </c>
-      <c r="B212" s="14" t="s">
+      <c r="B212" s="13" t="s">
         <v>105</v>
       </c>
     </row>
@@ -8196,7 +8197,7 @@
       <c r="A213">
         <v>299</v>
       </c>
-      <c r="B213" s="14" t="s">
+      <c r="B213" s="13" t="s">
         <v>206</v>
       </c>
     </row>
@@ -8204,7 +8205,7 @@
       <c r="A214">
         <v>351</v>
       </c>
-      <c r="B214" s="14" t="s">
+      <c r="B214" s="13" t="s">
         <v>207</v>
       </c>
     </row>
@@ -8232,7 +8233,7 @@
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="20" t="s">
+      <c r="A2" s="19" t="s">
         <v>51</v>
       </c>
       <c r="B2" t="s">
@@ -8240,7 +8241,7 @@
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="20" t="s">
+      <c r="A3" s="19" t="s">
         <v>55</v>
       </c>
       <c r="B3" t="s">
@@ -8248,7 +8249,7 @@
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="20" t="s">
+      <c r="A4" s="19" t="s">
         <v>52</v>
       </c>
       <c r="B4" t="s">
@@ -8256,7 +8257,7 @@
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="20" t="s">
+      <c r="A5" s="19" t="s">
         <v>57</v>
       </c>
       <c r="B5" t="s">
@@ -8264,7 +8265,7 @@
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="20" t="s">
+      <c r="A6" s="19" t="s">
         <v>50</v>
       </c>
       <c r="B6" t="s">
@@ -8272,7 +8273,7 @@
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="20" t="s">
+      <c r="A7" s="19" t="s">
         <v>58</v>
       </c>
       <c r="B7" t="s">
@@ -8280,7 +8281,7 @@
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="20" t="s">
+      <c r="A8" s="19" t="s">
         <v>59</v>
       </c>
       <c r="B8" t="s">
@@ -8288,7 +8289,7 @@
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" s="20" t="s">
+      <c r="A9" s="19" t="s">
         <v>85</v>
       </c>
       <c r="B9" t="s">
@@ -8296,7 +8297,7 @@
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" s="20" t="s">
+      <c r="A10" s="19" t="s">
         <v>72</v>
       </c>
       <c r="B10" t="s">
@@ -8304,7 +8305,7 @@
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" s="20" t="s">
+      <c r="A11" s="19" t="s">
         <v>86</v>
       </c>
       <c r="B11" t="s">
@@ -8312,7 +8313,7 @@
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" s="20" t="s">
+      <c r="A12" s="19" t="s">
         <v>196</v>
       </c>
       <c r="B12" t="s">
@@ -8320,7 +8321,7 @@
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" s="20" t="s">
+      <c r="A13" s="19" t="s">
         <v>61</v>
       </c>
       <c r="B13" t="s">
@@ -8328,7 +8329,7 @@
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" s="20" t="s">
+      <c r="A14" s="19" t="s">
         <v>70</v>
       </c>
       <c r="B14" t="s">
@@ -8336,7 +8337,7 @@
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" s="20" t="s">
+      <c r="A15" s="19" t="s">
         <v>89</v>
       </c>
       <c r="B15" t="s">
@@ -8344,7 +8345,7 @@
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" s="20" t="s">
+      <c r="A16" s="19" t="s">
         <v>94</v>
       </c>
       <c r="B16" t="s">
@@ -8352,7 +8353,7 @@
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" s="20" t="s">
+      <c r="A17" s="19" t="s">
         <v>205</v>
       </c>
       <c r="B17" t="s">
@@ -8360,7 +8361,7 @@
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" s="20" t="s">
+      <c r="A18" s="19" t="s">
         <v>67</v>
       </c>
       <c r="B18" t="s">
@@ -8368,7 +8369,7 @@
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" s="20" t="s">
+      <c r="A19" s="19" t="s">
         <v>64</v>
       </c>
       <c r="B19" t="s">
@@ -8376,7 +8377,7 @@
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20" s="20" t="s">
+      <c r="A20" s="19" t="s">
         <v>66</v>
       </c>
       <c r="B20" t="s">
@@ -8384,7 +8385,7 @@
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21" s="20" t="s">
+      <c r="A21" s="19" t="s">
         <v>63</v>
       </c>
       <c r="B21" t="s">
@@ -8392,7 +8393,7 @@
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22" s="20" t="s">
+      <c r="A22" s="19" t="s">
         <v>65</v>
       </c>
       <c r="B22" t="s">
@@ -8400,7 +8401,7 @@
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A23" s="20" t="s">
+      <c r="A23" s="19" t="s">
         <v>75</v>
       </c>
       <c r="B23" t="s">
@@ -8408,7 +8409,7 @@
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A24" s="20" t="s">
+      <c r="A24" s="19" t="s">
         <v>74</v>
       </c>
       <c r="B24" t="s">
@@ -8416,7 +8417,7 @@
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A25" s="20" t="s">
+      <c r="A25" s="19" t="s">
         <v>78</v>
       </c>
       <c r="B25" t="s">
@@ -8424,7 +8425,7 @@
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A26" s="20" t="s">
+      <c r="A26" s="19" t="s">
         <v>207</v>
       </c>
       <c r="B26" t="s">
@@ -8432,7 +8433,7 @@
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A27" s="20" t="s">
+      <c r="A27" s="19" t="s">
         <v>138</v>
       </c>
       <c r="B27" t="s">
@@ -8440,7 +8441,7 @@
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A28" s="20" t="s">
+      <c r="A28" s="19" t="s">
         <v>123</v>
       </c>
       <c r="B28" t="s">
@@ -8448,7 +8449,7 @@
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A29" s="20" t="s">
+      <c r="A29" s="19" t="s">
         <v>73</v>
       </c>
       <c r="B29" t="s">
@@ -8456,7 +8457,7 @@
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A30" s="20" t="s">
+      <c r="A30" s="19" t="s">
         <v>203</v>
       </c>
       <c r="B30" t="s">
@@ -8464,7 +8465,7 @@
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A31" s="20" t="s">
+      <c r="A31" s="19" t="s">
         <v>81</v>
       </c>
       <c r="B31" t="s">
@@ -8472,7 +8473,7 @@
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A32" s="20" t="s">
+      <c r="A32" s="19" t="s">
         <v>79</v>
       </c>
       <c r="B32" t="s">
@@ -8480,7 +8481,7 @@
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A33" s="20" t="s">
+      <c r="A33" s="19" t="s">
         <v>56</v>
       </c>
       <c r="B33" t="s">
@@ -8488,7 +8489,7 @@
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A34" s="20" t="s">
+      <c r="A34" s="19" t="s">
         <v>82</v>
       </c>
       <c r="B34" t="s">
@@ -8496,7 +8497,7 @@
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A35" s="20" t="s">
+      <c r="A35" s="19" t="s">
         <v>83</v>
       </c>
       <c r="B35" t="s">
@@ -8504,7 +8505,7 @@
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A36" s="20" t="s">
+      <c r="A36" s="19" t="s">
         <v>84</v>
       </c>
       <c r="B36" t="s">
@@ -8512,7 +8513,7 @@
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A37" s="20" t="s">
+      <c r="A37" s="19" t="s">
         <v>160</v>
       </c>
       <c r="B37" t="s">
@@ -8520,7 +8521,7 @@
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A38" s="20" t="s">
+      <c r="A38" s="19" t="s">
         <v>104</v>
       </c>
       <c r="B38" t="s">
@@ -8528,7 +8529,7 @@
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A39" s="20" t="s">
+      <c r="A39" s="19" t="s">
         <v>100</v>
       </c>
       <c r="B39" t="s">
@@ -8536,7 +8537,7 @@
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A40" s="20" t="s">
+      <c r="A40" s="19" t="s">
         <v>87</v>
       </c>
       <c r="B40" t="s">
@@ -8544,7 +8545,7 @@
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A41" s="20" t="s">
+      <c r="A41" s="19" t="s">
         <v>88</v>
       </c>
       <c r="B41" t="s">
@@ -8552,7 +8553,7 @@
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A42" s="20" t="s">
+      <c r="A42" s="19" t="s">
         <v>53</v>
       </c>
       <c r="B42" t="s">
@@ -8560,7 +8561,7 @@
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A43" s="20" t="s">
+      <c r="A43" s="19" t="s">
         <v>90</v>
       </c>
       <c r="B43" t="s">
@@ -8568,7 +8569,7 @@
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A44" s="20" t="s">
+      <c r="A44" s="19" t="s">
         <v>91</v>
       </c>
       <c r="B44" t="s">
@@ -8576,7 +8577,7 @@
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A45" s="20" t="s">
+      <c r="A45" s="19" t="s">
         <v>169</v>
       </c>
       <c r="B45" t="s">
@@ -8584,7 +8585,7 @@
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A46" s="20" t="s">
+      <c r="A46" s="19" t="s">
         <v>201</v>
       </c>
       <c r="B46" t="s">
@@ -8592,7 +8593,7 @@
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A47" s="20" t="s">
+      <c r="A47" s="19" t="s">
         <v>96</v>
       </c>
       <c r="B47" t="s">
@@ -8600,7 +8601,7 @@
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A48" s="20" t="s">
+      <c r="A48" s="19" t="s">
         <v>97</v>
       </c>
       <c r="B48" t="s">
@@ -8608,7 +8609,7 @@
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A49" s="20" t="s">
+      <c r="A49" s="19" t="s">
         <v>98</v>
       </c>
       <c r="B49" t="s">
@@ -8616,7 +8617,7 @@
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A50" s="20" t="s">
+      <c r="A50" s="19" t="s">
         <v>102</v>
       </c>
       <c r="B50" t="s">
@@ -8624,7 +8625,7 @@
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A51" s="20" t="s">
+      <c r="A51" s="19" t="s">
         <v>101</v>
       </c>
       <c r="B51" t="s">
@@ -8632,7 +8633,7 @@
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A52" s="20" t="s">
+      <c r="A52" s="19" t="s">
         <v>106</v>
       </c>
       <c r="B52" t="s">
@@ -8640,7 +8641,7 @@
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A53" s="20" t="s">
+      <c r="A53" s="19" t="s">
         <v>110</v>
       </c>
       <c r="B53" t="s">
@@ -8648,7 +8649,7 @@
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A54" s="20" t="s">
+      <c r="A54" s="19" t="s">
         <v>103</v>
       </c>
       <c r="B54" t="s">
@@ -8656,7 +8657,7 @@
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A55" s="20" t="s">
+      <c r="A55" s="19" t="s">
         <v>167</v>
       </c>
       <c r="B55" t="s">
@@ -8664,7 +8665,7 @@
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A56" s="20" t="s">
+      <c r="A56" s="19" t="s">
         <v>93</v>
       </c>
       <c r="B56" t="s">
@@ -8672,7 +8673,7 @@
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A57" s="20" t="s">
+      <c r="A57" s="19" t="s">
         <v>107</v>
       </c>
       <c r="B57" t="s">
@@ -8680,7 +8681,7 @@
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A58" s="20" t="s">
+      <c r="A58" s="19" t="s">
         <v>108</v>
       </c>
       <c r="B58" t="s">
@@ -8688,7 +8689,7 @@
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A59" s="20" t="s">
+      <c r="A59" s="19" t="s">
         <v>99</v>
       </c>
       <c r="B59" t="s">
@@ -8696,7 +8697,7 @@
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A60" s="20" t="s">
+      <c r="A60" s="19" t="s">
         <v>109</v>
       </c>
       <c r="B60" t="s">
@@ -8704,7 +8705,7 @@
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A61" s="20" t="s">
+      <c r="A61" s="19" t="s">
         <v>112</v>
       </c>
       <c r="B61" t="s">
@@ -8712,7 +8713,7 @@
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A62" s="20" t="s">
+      <c r="A62" s="19" t="s">
         <v>114</v>
       </c>
       <c r="B62" t="s">
@@ -8720,7 +8721,7 @@
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A63" s="20" t="s">
+      <c r="A63" s="19" t="s">
         <v>111</v>
       </c>
       <c r="B63" t="s">
@@ -8728,7 +8729,7 @@
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A64" s="20" t="s">
+      <c r="A64" s="19" t="s">
         <v>113</v>
       </c>
       <c r="B64" t="s">
@@ -8736,7 +8737,7 @@
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A65" s="20" t="s">
+      <c r="A65" s="19" t="s">
         <v>117</v>
       </c>
       <c r="B65" t="s">
@@ -8744,7 +8745,7 @@
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A66" s="20" t="s">
+      <c r="A66" s="19" t="s">
         <v>116</v>
       </c>
       <c r="B66" t="s">
@@ -8752,7 +8753,7 @@
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A67" s="20" t="s">
+      <c r="A67" s="19" t="s">
         <v>120</v>
       </c>
       <c r="B67" t="s">
@@ -8760,7 +8761,7 @@
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A68" s="20" t="s">
+      <c r="A68" s="19" t="s">
         <v>118</v>
       </c>
       <c r="B68" t="s">
@@ -8768,7 +8769,7 @@
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A69" s="20" t="s">
+      <c r="A69" s="19" t="s">
         <v>119</v>
       </c>
       <c r="B69" t="s">
@@ -8776,7 +8777,7 @@
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A70" s="20" t="s">
+      <c r="A70" s="19" t="s">
         <v>115</v>
       </c>
       <c r="B70" t="s">
@@ -8784,7 +8785,7 @@
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A71" s="20" t="s">
+      <c r="A71" s="19" t="s">
         <v>121</v>
       </c>
       <c r="B71" t="s">
@@ -8792,7 +8793,7 @@
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A72" s="20" t="s">
+      <c r="A72" s="19" t="s">
         <v>122</v>
       </c>
       <c r="B72" t="s">
@@ -8800,7 +8801,7 @@
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A73" s="20" t="s">
+      <c r="A73" s="19" t="s">
         <v>125</v>
       </c>
       <c r="B73" t="s">
@@ -8808,7 +8809,7 @@
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A74" s="20" t="s">
+      <c r="A74" s="19" t="s">
         <v>127</v>
       </c>
       <c r="B74" t="s">
@@ -8816,7 +8817,7 @@
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A75" s="20" t="s">
+      <c r="A75" s="19" t="s">
         <v>126</v>
       </c>
       <c r="B75" t="s">
@@ -8824,7 +8825,7 @@
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A76" s="20" t="s">
+      <c r="A76" s="19" t="s">
         <v>124</v>
       </c>
       <c r="B76" t="s">
@@ -8832,7 +8833,7 @@
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A77" s="20" t="s">
+      <c r="A77" s="19" t="s">
         <v>129</v>
       </c>
       <c r="B77" t="s">
@@ -8840,7 +8841,7 @@
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A78" s="20" t="s">
+      <c r="A78" s="19" t="s">
         <v>128</v>
       </c>
       <c r="B78" t="s">
@@ -8848,7 +8849,7 @@
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A79" s="20" t="s">
+      <c r="A79" s="19" t="s">
         <v>130</v>
       </c>
       <c r="B79" t="s">
@@ -8856,7 +8857,7 @@
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A80" s="20" t="s">
+      <c r="A80" s="19" t="s">
         <v>132</v>
       </c>
       <c r="B80" t="s">
@@ -8864,7 +8865,7 @@
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A81" s="20" t="s">
+      <c r="A81" s="19" t="s">
         <v>133</v>
       </c>
       <c r="B81" t="s">
@@ -8872,7 +8873,7 @@
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A82" s="20" t="s">
+      <c r="A82" s="19" t="s">
         <v>134</v>
       </c>
       <c r="B82" t="s">
@@ -8880,7 +8881,7 @@
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A83" s="20" t="s">
+      <c r="A83" s="19" t="s">
         <v>136</v>
       </c>
       <c r="B83" t="s">
@@ -8888,7 +8889,7 @@
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A84" s="20" t="s">
+      <c r="A84" s="19" t="s">
         <v>137</v>
       </c>
       <c r="B84" t="s">
@@ -8896,7 +8897,7 @@
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A85" s="20" t="s">
+      <c r="A85" s="19" t="s">
         <v>76</v>
       </c>
       <c r="B85" t="s">
@@ -8904,7 +8905,7 @@
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A86" s="20" t="s">
+      <c r="A86" s="19" t="s">
         <v>135</v>
       </c>
       <c r="B86" t="s">
@@ -8912,7 +8913,7 @@
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A87" s="20" t="s">
+      <c r="A87" s="19" t="s">
         <v>148</v>
       </c>
       <c r="B87" t="s">
@@ -8920,7 +8921,7 @@
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A88" s="20" t="s">
+      <c r="A88" s="19" t="s">
         <v>139</v>
       </c>
       <c r="B88" t="s">
@@ -8928,7 +8929,7 @@
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A89" s="20" t="s">
+      <c r="A89" s="19" t="s">
         <v>144</v>
       </c>
       <c r="B89" t="s">
@@ -8936,7 +8937,7 @@
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A90" s="20" t="s">
+      <c r="A90" s="19" t="s">
         <v>142</v>
       </c>
       <c r="B90" t="s">
@@ -8944,7 +8945,7 @@
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A91" s="20" t="s">
+      <c r="A91" s="19" t="s">
         <v>71</v>
       </c>
       <c r="B91" t="s">
@@ -8952,7 +8953,7 @@
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A92" s="20" t="s">
+      <c r="A92" s="19" t="s">
         <v>145</v>
       </c>
       <c r="B92" t="s">
@@ -8960,7 +8961,7 @@
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A93" s="20" t="s">
+      <c r="A93" s="19" t="s">
         <v>146</v>
       </c>
       <c r="B93" t="s">
@@ -8968,7 +8969,7 @@
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A94" s="20" t="s">
+      <c r="A94" s="19" t="s">
         <v>147</v>
       </c>
       <c r="B94" t="s">
@@ -8976,7 +8977,7 @@
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A95" s="20" t="s">
+      <c r="A95" s="19" t="s">
         <v>143</v>
       </c>
       <c r="B95" t="s">
@@ -8984,7 +8985,7 @@
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A96" s="20" t="s">
+      <c r="A96" s="19" t="s">
         <v>140</v>
       </c>
       <c r="B96" t="s">
@@ -8992,7 +8993,7 @@
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A97" s="20" t="s">
+      <c r="A97" s="19" t="s">
         <v>141</v>
       </c>
       <c r="B97" t="s">
@@ -9000,7 +9001,7 @@
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A98" s="20" t="s">
+      <c r="A98" s="19" t="s">
         <v>149</v>
       </c>
       <c r="B98" t="s">
@@ -9008,7 +9009,7 @@
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A99" s="20" t="s">
+      <c r="A99" s="19" t="s">
         <v>155</v>
       </c>
       <c r="B99" t="s">
@@ -9016,7 +9017,7 @@
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A100" s="20" t="s">
+      <c r="A100" s="19" t="s">
         <v>156</v>
       </c>
       <c r="B100" t="s">
@@ -9024,7 +9025,7 @@
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A101" s="20" t="s">
+      <c r="A101" s="19" t="s">
         <v>154</v>
       </c>
       <c r="B101" t="s">
@@ -9032,7 +9033,7 @@
       </c>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A102" s="20" t="s">
+      <c r="A102" s="19" t="s">
         <v>151</v>
       </c>
       <c r="B102" t="s">
@@ -9040,7 +9041,7 @@
       </c>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A103" s="20" t="s">
+      <c r="A103" s="19" t="s">
         <v>157</v>
       </c>
       <c r="B103" t="s">
@@ -9048,7 +9049,7 @@
       </c>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A104" s="20" t="s">
+      <c r="A104" s="19" t="s">
         <v>150</v>
       </c>
       <c r="B104" t="s">
@@ -9056,7 +9057,7 @@
       </c>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A105" s="20" t="s">
+      <c r="A105" s="19" t="s">
         <v>153</v>
       </c>
       <c r="B105" t="s">
@@ -9064,7 +9065,7 @@
       </c>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A106" s="20" t="s">
+      <c r="A106" s="19" t="s">
         <v>62</v>
       </c>
       <c r="B106" t="s">
@@ -9072,7 +9073,7 @@
       </c>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A107" s="20" t="s">
+      <c r="A107" s="19" t="s">
         <v>105</v>
       </c>
       <c r="B107" t="s">
@@ -9080,7 +9081,7 @@
       </c>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A108" s="20" t="s">
+      <c r="A108" s="19" t="s">
         <v>80</v>
       </c>
       <c r="B108" t="s">
@@ -9088,7 +9089,7 @@
       </c>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A109" s="20" t="s">
+      <c r="A109" s="19" t="s">
         <v>54</v>
       </c>
       <c r="B109" t="s">
@@ -9096,7 +9097,7 @@
       </c>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A110" s="20" t="s">
+      <c r="A110" s="19" t="s">
         <v>69</v>
       </c>
       <c r="B110" t="s">
@@ -9104,7 +9105,7 @@
       </c>
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A111" s="20" t="s">
+      <c r="A111" s="19" t="s">
         <v>158</v>
       </c>
       <c r="B111" t="s">
@@ -9112,7 +9113,7 @@
       </c>
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A112" s="20" t="s">
+      <c r="A112" s="19" t="s">
         <v>159</v>
       </c>
       <c r="B112" t="s">
@@ -9120,7 +9121,7 @@
       </c>
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A113" s="20" t="s">
+      <c r="A113" s="19" t="s">
         <v>163</v>
       </c>
       <c r="B113" t="s">
@@ -9128,7 +9129,7 @@
       </c>
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A114" s="20" t="s">
+      <c r="A114" s="19" t="s">
         <v>164</v>
       </c>
       <c r="B114" t="s">
@@ -9136,7 +9137,7 @@
       </c>
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A115" s="20" t="s">
+      <c r="A115" s="19" t="s">
         <v>161</v>
       </c>
       <c r="B115" t="s">
@@ -9144,7 +9145,7 @@
       </c>
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A116" s="20" t="s">
+      <c r="A116" s="19" t="s">
         <v>165</v>
       </c>
       <c r="B116" t="s">
@@ -9152,7 +9153,7 @@
       </c>
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A117" s="20" t="s">
+      <c r="A117" s="19" t="s">
         <v>131</v>
       </c>
       <c r="B117" t="s">
@@ -9160,7 +9161,7 @@
       </c>
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A118" s="20" t="s">
+      <c r="A118" s="19" t="s">
         <v>166</v>
       </c>
       <c r="B118" t="s">
@@ -9168,7 +9169,7 @@
       </c>
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A119" s="20" t="s">
+      <c r="A119" s="19" t="s">
         <v>162</v>
       </c>
       <c r="B119" t="s">
@@ -9176,7 +9177,7 @@
       </c>
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A120" s="20" t="s">
+      <c r="A120" s="19" t="s">
         <v>206</v>
       </c>
       <c r="B120" t="s">
@@ -9184,7 +9185,7 @@
       </c>
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A121" s="20" t="s">
+      <c r="A121" s="19" t="s">
         <v>60</v>
       </c>
       <c r="B121" t="s">
@@ -9192,7 +9193,7 @@
       </c>
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A122" s="20" t="s">
+      <c r="A122" s="19" t="s">
         <v>171</v>
       </c>
       <c r="B122" t="s">
@@ -9200,7 +9201,7 @@
       </c>
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A123" s="20" t="s">
+      <c r="A123" s="19" t="s">
         <v>173</v>
       </c>
       <c r="B123" t="s">
@@ -9208,7 +9209,7 @@
       </c>
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A124" s="20" t="s">
+      <c r="A124" s="19" t="s">
         <v>172</v>
       </c>
       <c r="B124" t="s">
@@ -9216,7 +9217,7 @@
       </c>
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A125" s="20" t="s">
+      <c r="A125" s="19" t="s">
         <v>174</v>
       </c>
       <c r="B125" t="s">
@@ -9224,7 +9225,7 @@
       </c>
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A126" s="20" t="s">
+      <c r="A126" s="19" t="s">
         <v>182</v>
       </c>
       <c r="B126" t="s">
@@ -9232,7 +9233,7 @@
       </c>
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A127" s="20" t="s">
+      <c r="A127" s="19" t="s">
         <v>175</v>
       </c>
       <c r="B127" t="s">
@@ -9240,7 +9241,7 @@
       </c>
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A128" s="20" t="s">
+      <c r="A128" s="19" t="s">
         <v>68</v>
       </c>
       <c r="B128" t="s">
@@ -9248,7 +9249,7 @@
       </c>
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A129" s="20" t="s">
+      <c r="A129" s="19" t="s">
         <v>176</v>
       </c>
       <c r="B129" t="s">
@@ -9256,7 +9257,7 @@
       </c>
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A130" s="20" t="s">
+      <c r="A130" s="19" t="s">
         <v>92</v>
       </c>
       <c r="B130" t="s">
@@ -9264,7 +9265,7 @@
       </c>
     </row>
     <row r="131" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A131" s="20" t="s">
+      <c r="A131" s="19" t="s">
         <v>179</v>
       </c>
       <c r="B131" t="s">
@@ -9272,7 +9273,7 @@
       </c>
     </row>
     <row r="132" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A132" s="20" t="s">
+      <c r="A132" s="19" t="s">
         <v>181</v>
       </c>
       <c r="B132" t="s">
@@ -9280,7 +9281,7 @@
       </c>
     </row>
     <row r="133" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A133" s="20" t="s">
+      <c r="A133" s="19" t="s">
         <v>178</v>
       </c>
       <c r="B133" t="s">
@@ -9288,7 +9289,7 @@
       </c>
     </row>
     <row r="134" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A134" s="20" t="s">
+      <c r="A134" s="19" t="s">
         <v>177</v>
       </c>
       <c r="B134" t="s">
@@ -9296,7 +9297,7 @@
       </c>
     </row>
     <row r="135" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A135" s="20" t="s">
+      <c r="A135" s="19" t="s">
         <v>185</v>
       </c>
       <c r="B135" t="s">
@@ -9304,7 +9305,7 @@
       </c>
     </row>
     <row r="136" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A136" s="20" t="s">
+      <c r="A136" s="19" t="s">
         <v>184</v>
       </c>
       <c r="B136" t="s">
@@ -9312,7 +9313,7 @@
       </c>
     </row>
     <row r="137" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A137" s="20" t="s">
+      <c r="A137" s="19" t="s">
         <v>186</v>
       </c>
       <c r="B137" t="s">
@@ -9320,7 +9321,7 @@
       </c>
     </row>
     <row r="138" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A138" s="20" t="s">
+      <c r="A138" s="19" t="s">
         <v>77</v>
       </c>
       <c r="B138" t="s">
@@ -9328,7 +9329,7 @@
       </c>
     </row>
     <row r="139" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A139" s="20" t="s">
+      <c r="A139" s="19" t="s">
         <v>190</v>
       </c>
       <c r="B139" t="s">
@@ -9336,7 +9337,7 @@
       </c>
     </row>
     <row r="140" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A140" s="20" t="s">
+      <c r="A140" s="19" t="s">
         <v>189</v>
       </c>
       <c r="B140" t="s">
@@ -9344,7 +9345,7 @@
       </c>
     </row>
     <row r="141" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A141" s="20" t="s">
+      <c r="A141" s="19" t="s">
         <v>183</v>
       </c>
       <c r="B141" t="s">
@@ -9352,7 +9353,7 @@
       </c>
     </row>
     <row r="142" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A142" s="20" t="s">
+      <c r="A142" s="19" t="s">
         <v>187</v>
       </c>
       <c r="B142" t="s">
@@ -9360,7 +9361,7 @@
       </c>
     </row>
     <row r="143" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A143" s="20" t="s">
+      <c r="A143" s="19" t="s">
         <v>168</v>
       </c>
       <c r="B143" t="s">
@@ -9368,7 +9369,7 @@
       </c>
     </row>
     <row r="144" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A144" s="20" t="s">
+      <c r="A144" s="19" t="s">
         <v>191</v>
       </c>
       <c r="B144" t="s">
@@ -9376,7 +9377,7 @@
       </c>
     </row>
     <row r="145" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A145" s="20" t="s">
+      <c r="A145" s="19" t="s">
         <v>192</v>
       </c>
       <c r="B145" t="s">
@@ -9384,7 +9385,7 @@
       </c>
     </row>
     <row r="146" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A146" s="20" t="s">
+      <c r="A146" s="19" t="s">
         <v>188</v>
       </c>
       <c r="B146" t="s">
@@ -9392,7 +9393,7 @@
       </c>
     </row>
     <row r="147" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A147" s="20" t="s">
+      <c r="A147" s="19" t="s">
         <v>193</v>
       </c>
       <c r="B147" t="s">
@@ -9400,7 +9401,7 @@
       </c>
     </row>
     <row r="148" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A148" s="20" t="s">
+      <c r="A148" s="19" t="s">
         <v>95</v>
       </c>
       <c r="B148" t="s">
@@ -9408,7 +9409,7 @@
       </c>
     </row>
     <row r="149" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A149" s="20" t="s">
+      <c r="A149" s="19" t="s">
         <v>194</v>
       </c>
       <c r="B149" t="s">
@@ -9416,7 +9417,7 @@
       </c>
     </row>
     <row r="150" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A150" s="20" t="s">
+      <c r="A150" s="19" t="s">
         <v>197</v>
       </c>
       <c r="B150" t="s">
@@ -9424,7 +9425,7 @@
       </c>
     </row>
     <row r="151" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A151" s="20" t="s">
+      <c r="A151" s="19" t="s">
         <v>195</v>
       </c>
       <c r="B151" t="s">
@@ -9432,7 +9433,7 @@
       </c>
     </row>
     <row r="152" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A152" s="20" t="s">
+      <c r="A152" s="19" t="s">
         <v>198</v>
       </c>
       <c r="B152" t="s">
@@ -9440,7 +9441,7 @@
       </c>
     </row>
     <row r="153" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A153" s="20" t="s">
+      <c r="A153" s="19" t="s">
         <v>199</v>
       </c>
       <c r="B153" t="s">
@@ -9448,7 +9449,7 @@
       </c>
     </row>
     <row r="154" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A154" s="20" t="s">
+      <c r="A154" s="19" t="s">
         <v>200</v>
       </c>
       <c r="B154" t="s">
@@ -9456,7 +9457,7 @@
       </c>
     </row>
     <row r="155" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A155" s="20" t="s">
+      <c r="A155" s="19" t="s">
         <v>152</v>
       </c>
       <c r="B155" t="s">
@@ -9464,7 +9465,7 @@
       </c>
     </row>
     <row r="156" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A156" s="20" t="s">
+      <c r="A156" s="19" t="s">
         <v>202</v>
       </c>
       <c r="B156" t="s">
@@ -9472,7 +9473,7 @@
       </c>
     </row>
     <row r="157" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A157" s="20" t="s">
+      <c r="A157" s="19" t="s">
         <v>180</v>
       </c>
       <c r="B157" t="s">
@@ -9480,7 +9481,7 @@
       </c>
     </row>
     <row r="158" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A158" s="20" t="s">
+      <c r="A158" s="19" t="s">
         <v>204</v>
       </c>
       <c r="B158" t="s">
@@ -9488,7 +9489,7 @@
       </c>
     </row>
     <row r="159" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A159" s="20" t="s">
+      <c r="A159" s="19" t="s">
         <v>170</v>
       </c>
       <c r="B159" t="s">
@@ -9496,7 +9497,7 @@
       </c>
     </row>
     <row r="160" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A160" s="20" t="s">
+      <c r="A160" s="19" t="s">
         <v>51</v>
       </c>
       <c r="B160" t="s">
@@ -9504,7 +9505,7 @@
       </c>
     </row>
     <row r="161" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A161" s="20" t="s">
+      <c r="A161" s="19" t="s">
         <v>55</v>
       </c>
       <c r="B161" t="s">
@@ -9512,7 +9513,7 @@
       </c>
     </row>
     <row r="162" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A162" s="20" t="s">
+      <c r="A162" s="19" t="s">
         <v>52</v>
       </c>
       <c r="B162" t="s">
@@ -9520,7 +9521,7 @@
       </c>
     </row>
     <row r="163" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A163" s="20" t="s">
+      <c r="A163" s="19" t="s">
         <v>57</v>
       </c>
       <c r="B163" t="s">
@@ -9528,7 +9529,7 @@
       </c>
     </row>
     <row r="164" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A164" s="20" t="s">
+      <c r="A164" s="19" t="s">
         <v>50</v>
       </c>
       <c r="B164" t="s">
@@ -9536,7 +9537,7 @@
       </c>
     </row>
     <row r="165" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A165" s="20" t="s">
+      <c r="A165" s="19" t="s">
         <v>58</v>
       </c>
       <c r="B165" t="s">
@@ -9544,7 +9545,7 @@
       </c>
     </row>
     <row r="166" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A166" s="20" t="s">
+      <c r="A166" s="19" t="s">
         <v>59</v>
       </c>
       <c r="B166" t="s">
@@ -9552,7 +9553,7 @@
       </c>
     </row>
     <row r="167" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A167" s="20" t="s">
+      <c r="A167" s="19" t="s">
         <v>85</v>
       </c>
       <c r="B167" t="s">
@@ -9560,7 +9561,7 @@
       </c>
     </row>
     <row r="168" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A168" s="20" t="s">
+      <c r="A168" s="19" t="s">
         <v>72</v>
       </c>
       <c r="B168" t="s">
@@ -9568,7 +9569,7 @@
       </c>
     </row>
     <row r="169" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A169" s="20" t="s">
+      <c r="A169" s="19" t="s">
         <v>86</v>
       </c>
       <c r="B169" t="s">
@@ -9576,7 +9577,7 @@
       </c>
     </row>
     <row r="170" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A170" s="20" t="s">
+      <c r="A170" s="19" t="s">
         <v>196</v>
       </c>
       <c r="B170" t="s">
@@ -9584,7 +9585,7 @@
       </c>
     </row>
     <row r="171" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A171" s="20" t="s">
+      <c r="A171" s="19" t="s">
         <v>61</v>
       </c>
       <c r="B171" t="s">
@@ -9592,7 +9593,7 @@
       </c>
     </row>
     <row r="172" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A172" s="20" t="s">
+      <c r="A172" s="19" t="s">
         <v>70</v>
       </c>
       <c r="B172" t="s">
@@ -9600,7 +9601,7 @@
       </c>
     </row>
     <row r="173" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A173" s="20" t="s">
+      <c r="A173" s="19" t="s">
         <v>89</v>
       </c>
       <c r="B173" t="s">
@@ -9608,7 +9609,7 @@
       </c>
     </row>
     <row r="174" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A174" s="20" t="s">
+      <c r="A174" s="19" t="s">
         <v>94</v>
       </c>
       <c r="B174" t="s">
@@ -9616,7 +9617,7 @@
       </c>
     </row>
     <row r="175" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A175" s="20" t="s">
+      <c r="A175" s="19" t="s">
         <v>205</v>
       </c>
       <c r="B175" t="s">
@@ -9624,7 +9625,7 @@
       </c>
     </row>
     <row r="176" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A176" s="20" t="s">
+      <c r="A176" s="19" t="s">
         <v>67</v>
       </c>
       <c r="B176" t="s">
@@ -9632,7 +9633,7 @@
       </c>
     </row>
     <row r="177" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A177" s="20" t="s">
+      <c r="A177" s="19" t="s">
         <v>64</v>
       </c>
       <c r="B177" t="s">
@@ -9640,7 +9641,7 @@
       </c>
     </row>
     <row r="178" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A178" s="20" t="s">
+      <c r="A178" s="19" t="s">
         <v>66</v>
       </c>
       <c r="B178" t="s">
@@ -9648,7 +9649,7 @@
       </c>
     </row>
     <row r="179" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A179" s="20" t="s">
+      <c r="A179" s="19" t="s">
         <v>63</v>
       </c>
       <c r="B179" t="s">
@@ -9656,7 +9657,7 @@
       </c>
     </row>
     <row r="180" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A180" s="20" t="s">
+      <c r="A180" s="19" t="s">
         <v>65</v>
       </c>
       <c r="B180" t="s">
@@ -9664,7 +9665,7 @@
       </c>
     </row>
     <row r="181" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A181" s="20" t="s">
+      <c r="A181" s="19" t="s">
         <v>75</v>
       </c>
       <c r="B181" t="s">
@@ -9672,7 +9673,7 @@
       </c>
     </row>
     <row r="182" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A182" s="20" t="s">
+      <c r="A182" s="19" t="s">
         <v>74</v>
       </c>
       <c r="B182" t="s">
@@ -9680,7 +9681,7 @@
       </c>
     </row>
     <row r="183" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A183" s="20" t="s">
+      <c r="A183" s="19" t="s">
         <v>78</v>
       </c>
       <c r="B183" t="s">
@@ -9688,7 +9689,7 @@
       </c>
     </row>
     <row r="184" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A184" s="20" t="s">
+      <c r="A184" s="19" t="s">
         <v>207</v>
       </c>
       <c r="B184" t="s">
@@ -9696,7 +9697,7 @@
       </c>
     </row>
     <row r="185" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A185" s="20" t="s">
+      <c r="A185" s="19" t="s">
         <v>138</v>
       </c>
       <c r="B185" t="s">
@@ -9704,7 +9705,7 @@
       </c>
     </row>
     <row r="186" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A186" s="20" t="s">
+      <c r="A186" s="19" t="s">
         <v>123</v>
       </c>
       <c r="B186" t="s">
@@ -9712,7 +9713,7 @@
       </c>
     </row>
     <row r="187" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A187" s="20" t="s">
+      <c r="A187" s="19" t="s">
         <v>73</v>
       </c>
       <c r="B187" t="s">
@@ -9720,7 +9721,7 @@
       </c>
     </row>
     <row r="188" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A188" s="20" t="s">
+      <c r="A188" s="19" t="s">
         <v>203</v>
       </c>
       <c r="B188" t="s">
@@ -9728,7 +9729,7 @@
       </c>
     </row>
     <row r="189" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A189" s="20" t="s">
+      <c r="A189" s="19" t="s">
         <v>81</v>
       </c>
       <c r="B189" t="s">
@@ -9736,7 +9737,7 @@
       </c>
     </row>
     <row r="190" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A190" s="20" t="s">
+      <c r="A190" s="19" t="s">
         <v>79</v>
       </c>
       <c r="B190" t="s">
@@ -9744,7 +9745,7 @@
       </c>
     </row>
     <row r="191" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A191" s="20" t="s">
+      <c r="A191" s="19" t="s">
         <v>56</v>
       </c>
       <c r="B191" t="s">
@@ -9752,7 +9753,7 @@
       </c>
     </row>
     <row r="192" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A192" s="20" t="s">
+      <c r="A192" s="19" t="s">
         <v>82</v>
       </c>
       <c r="B192" t="s">
@@ -9760,7 +9761,7 @@
       </c>
     </row>
     <row r="193" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A193" s="20" t="s">
+      <c r="A193" s="19" t="s">
         <v>83</v>
       </c>
       <c r="B193" t="s">
@@ -9768,7 +9769,7 @@
       </c>
     </row>
     <row r="194" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A194" s="20" t="s">
+      <c r="A194" s="19" t="s">
         <v>84</v>
       </c>
       <c r="B194" t="s">
@@ -9776,7 +9777,7 @@
       </c>
     </row>
     <row r="195" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A195" s="20" t="s">
+      <c r="A195" s="19" t="s">
         <v>160</v>
       </c>
       <c r="B195" t="s">
@@ -9784,7 +9785,7 @@
       </c>
     </row>
     <row r="196" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A196" s="20" t="s">
+      <c r="A196" s="19" t="s">
         <v>104</v>
       </c>
       <c r="B196" t="s">
@@ -9792,7 +9793,7 @@
       </c>
     </row>
     <row r="197" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A197" s="20" t="s">
+      <c r="A197" s="19" t="s">
         <v>100</v>
       </c>
       <c r="B197" t="s">
@@ -9800,7 +9801,7 @@
       </c>
     </row>
     <row r="198" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A198" s="20" t="s">
+      <c r="A198" s="19" t="s">
         <v>87</v>
       </c>
       <c r="B198" t="s">
@@ -9808,7 +9809,7 @@
       </c>
     </row>
     <row r="199" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A199" s="20" t="s">
+      <c r="A199" s="19" t="s">
         <v>88</v>
       </c>
       <c r="B199" t="s">
@@ -9816,7 +9817,7 @@
       </c>
     </row>
     <row r="200" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A200" s="20" t="s">
+      <c r="A200" s="19" t="s">
         <v>53</v>
       </c>
       <c r="B200" t="s">
@@ -9824,7 +9825,7 @@
       </c>
     </row>
     <row r="201" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A201" s="20" t="s">
+      <c r="A201" s="19" t="s">
         <v>90</v>
       </c>
       <c r="B201" t="s">
@@ -9832,7 +9833,7 @@
       </c>
     </row>
     <row r="202" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A202" s="20" t="s">
+      <c r="A202" s="19" t="s">
         <v>91</v>
       </c>
       <c r="B202" t="s">
@@ -9840,7 +9841,7 @@
       </c>
     </row>
     <row r="203" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A203" s="20" t="s">
+      <c r="A203" s="19" t="s">
         <v>169</v>
       </c>
       <c r="B203" t="s">
@@ -9848,7 +9849,7 @@
       </c>
     </row>
     <row r="204" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A204" s="20" t="s">
+      <c r="A204" s="19" t="s">
         <v>201</v>
       </c>
       <c r="B204" t="s">
@@ -9856,7 +9857,7 @@
       </c>
     </row>
     <row r="205" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A205" s="20" t="s">
+      <c r="A205" s="19" t="s">
         <v>96</v>
       </c>
       <c r="B205" t="s">
@@ -9864,7 +9865,7 @@
       </c>
     </row>
     <row r="206" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A206" s="20" t="s">
+      <c r="A206" s="19" t="s">
         <v>97</v>
       </c>
       <c r="B206" t="s">
@@ -9872,7 +9873,7 @@
       </c>
     </row>
     <row r="207" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A207" s="20" t="s">
+      <c r="A207" s="19" t="s">
         <v>98</v>
       </c>
       <c r="B207" t="s">
@@ -9880,7 +9881,7 @@
       </c>
     </row>
     <row r="208" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A208" s="20" t="s">
+      <c r="A208" s="19" t="s">
         <v>102</v>
       </c>
       <c r="B208" t="s">
@@ -9888,7 +9889,7 @@
       </c>
     </row>
     <row r="209" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A209" s="20" t="s">
+      <c r="A209" s="19" t="s">
         <v>101</v>
       </c>
       <c r="B209" t="s">
@@ -9896,7 +9897,7 @@
       </c>
     </row>
     <row r="210" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A210" s="20" t="s">
+      <c r="A210" s="19" t="s">
         <v>106</v>
       </c>
       <c r="B210" t="s">
@@ -9904,7 +9905,7 @@
       </c>
     </row>
     <row r="211" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A211" s="20" t="s">
+      <c r="A211" s="19" t="s">
         <v>110</v>
       </c>
       <c r="B211" t="s">
@@ -9912,7 +9913,7 @@
       </c>
     </row>
     <row r="212" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A212" s="20" t="s">
+      <c r="A212" s="19" t="s">
         <v>103</v>
       </c>
       <c r="B212" t="s">
@@ -9920,7 +9921,7 @@
       </c>
     </row>
     <row r="213" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A213" s="20" t="s">
+      <c r="A213" s="19" t="s">
         <v>167</v>
       </c>
       <c r="B213" t="s">
@@ -9928,7 +9929,7 @@
       </c>
     </row>
     <row r="214" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A214" s="20" t="s">
+      <c r="A214" s="19" t="s">
         <v>93</v>
       </c>
       <c r="B214" t="s">
@@ -9936,7 +9937,7 @@
       </c>
     </row>
     <row r="215" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A215" s="20" t="s">
+      <c r="A215" s="19" t="s">
         <v>107</v>
       </c>
       <c r="B215" t="s">
@@ -9944,7 +9945,7 @@
       </c>
     </row>
     <row r="216" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A216" s="20" t="s">
+      <c r="A216" s="19" t="s">
         <v>108</v>
       </c>
       <c r="B216" t="s">
@@ -9952,7 +9953,7 @@
       </c>
     </row>
     <row r="217" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A217" s="20" t="s">
+      <c r="A217" s="19" t="s">
         <v>99</v>
       </c>
       <c r="B217" t="s">
@@ -9960,7 +9961,7 @@
       </c>
     </row>
     <row r="218" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A218" s="20" t="s">
+      <c r="A218" s="19" t="s">
         <v>109</v>
       </c>
       <c r="B218" t="s">
@@ -9968,7 +9969,7 @@
       </c>
     </row>
     <row r="219" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A219" s="20" t="s">
+      <c r="A219" s="19" t="s">
         <v>112</v>
       </c>
       <c r="B219" t="s">
@@ -9976,7 +9977,7 @@
       </c>
     </row>
     <row r="220" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A220" s="20" t="s">
+      <c r="A220" s="19" t="s">
         <v>114</v>
       </c>
       <c r="B220" t="s">
@@ -9984,7 +9985,7 @@
       </c>
     </row>
     <row r="221" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A221" s="20" t="s">
+      <c r="A221" s="19" t="s">
         <v>111</v>
       </c>
       <c r="B221" t="s">
@@ -9992,7 +9993,7 @@
       </c>
     </row>
     <row r="222" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A222" s="20" t="s">
+      <c r="A222" s="19" t="s">
         <v>113</v>
       </c>
       <c r="B222" t="s">
@@ -10000,7 +10001,7 @@
       </c>
     </row>
     <row r="223" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A223" s="20" t="s">
+      <c r="A223" s="19" t="s">
         <v>117</v>
       </c>
       <c r="B223" t="s">
@@ -10008,7 +10009,7 @@
       </c>
     </row>
     <row r="224" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A224" s="20" t="s">
+      <c r="A224" s="19" t="s">
         <v>116</v>
       </c>
       <c r="B224" t="s">
@@ -10016,7 +10017,7 @@
       </c>
     </row>
     <row r="225" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A225" s="20" t="s">
+      <c r="A225" s="19" t="s">
         <v>120</v>
       </c>
       <c r="B225" t="s">
@@ -10024,7 +10025,7 @@
       </c>
     </row>
     <row r="226" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A226" s="20" t="s">
+      <c r="A226" s="19" t="s">
         <v>118</v>
       </c>
       <c r="B226" t="s">
@@ -10032,7 +10033,7 @@
       </c>
     </row>
     <row r="227" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A227" s="20" t="s">
+      <c r="A227" s="19" t="s">
         <v>119</v>
       </c>
       <c r="B227" t="s">
@@ -10040,7 +10041,7 @@
       </c>
     </row>
     <row r="228" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A228" s="20" t="s">
+      <c r="A228" s="19" t="s">
         <v>115</v>
       </c>
       <c r="B228" t="s">
@@ -10048,7 +10049,7 @@
       </c>
     </row>
     <row r="229" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A229" s="20" t="s">
+      <c r="A229" s="19" t="s">
         <v>121</v>
       </c>
       <c r="B229" t="s">
@@ -10056,7 +10057,7 @@
       </c>
     </row>
     <row r="230" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A230" s="20" t="s">
+      <c r="A230" s="19" t="s">
         <v>122</v>
       </c>
       <c r="B230" t="s">
@@ -10064,7 +10065,7 @@
       </c>
     </row>
     <row r="231" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A231" s="20" t="s">
+      <c r="A231" s="19" t="s">
         <v>125</v>
       </c>
       <c r="B231" t="s">
@@ -10072,7 +10073,7 @@
       </c>
     </row>
     <row r="232" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A232" s="20" t="s">
+      <c r="A232" s="19" t="s">
         <v>127</v>
       </c>
       <c r="B232" t="s">
@@ -10080,7 +10081,7 @@
       </c>
     </row>
     <row r="233" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A233" s="20" t="s">
+      <c r="A233" s="19" t="s">
         <v>126</v>
       </c>
       <c r="B233" t="s">
@@ -10088,7 +10089,7 @@
       </c>
     </row>
     <row r="234" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A234" s="20" t="s">
+      <c r="A234" s="19" t="s">
         <v>124</v>
       </c>
       <c r="B234" t="s">
@@ -10096,7 +10097,7 @@
       </c>
     </row>
     <row r="235" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A235" s="20" t="s">
+      <c r="A235" s="19" t="s">
         <v>129</v>
       </c>
       <c r="B235" t="s">
@@ -10104,7 +10105,7 @@
       </c>
     </row>
     <row r="236" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A236" s="20" t="s">
+      <c r="A236" s="19" t="s">
         <v>128</v>
       </c>
       <c r="B236" t="s">
@@ -10112,7 +10113,7 @@
       </c>
     </row>
     <row r="237" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A237" s="20" t="s">
+      <c r="A237" s="19" t="s">
         <v>130</v>
       </c>
       <c r="B237" t="s">
@@ -10120,7 +10121,7 @@
       </c>
     </row>
     <row r="238" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A238" s="20" t="s">
+      <c r="A238" s="19" t="s">
         <v>132</v>
       </c>
       <c r="B238" t="s">
@@ -10128,7 +10129,7 @@
       </c>
     </row>
     <row r="239" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A239" s="20" t="s">
+      <c r="A239" s="19" t="s">
         <v>133</v>
       </c>
       <c r="B239" t="s">
@@ -10136,7 +10137,7 @@
       </c>
     </row>
     <row r="240" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A240" s="20" t="s">
+      <c r="A240" s="19" t="s">
         <v>134</v>
       </c>
       <c r="B240" t="s">
@@ -10144,7 +10145,7 @@
       </c>
     </row>
     <row r="241" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A241" s="20" t="s">
+      <c r="A241" s="19" t="s">
         <v>136</v>
       </c>
       <c r="B241" t="s">
@@ -10152,7 +10153,7 @@
       </c>
     </row>
     <row r="242" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A242" s="20" t="s">
+      <c r="A242" s="19" t="s">
         <v>137</v>
       </c>
       <c r="B242" t="s">
@@ -10160,7 +10161,7 @@
       </c>
     </row>
     <row r="243" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A243" s="20" t="s">
+      <c r="A243" s="19" t="s">
         <v>76</v>
       </c>
       <c r="B243" t="s">
@@ -10168,7 +10169,7 @@
       </c>
     </row>
     <row r="244" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A244" s="20" t="s">
+      <c r="A244" s="19" t="s">
         <v>135</v>
       </c>
       <c r="B244" t="s">
@@ -10176,7 +10177,7 @@
       </c>
     </row>
     <row r="245" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A245" s="20" t="s">
+      <c r="A245" s="19" t="s">
         <v>148</v>
       </c>
       <c r="B245" t="s">
@@ -10184,7 +10185,7 @@
       </c>
     </row>
     <row r="246" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A246" s="20" t="s">
+      <c r="A246" s="19" t="s">
         <v>139</v>
       </c>
       <c r="B246" t="s">
@@ -10192,7 +10193,7 @@
       </c>
     </row>
     <row r="247" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A247" s="20" t="s">
+      <c r="A247" s="19" t="s">
         <v>144</v>
       </c>
       <c r="B247" t="s">
@@ -10200,7 +10201,7 @@
       </c>
     </row>
     <row r="248" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A248" s="20" t="s">
+      <c r="A248" s="19" t="s">
         <v>142</v>
       </c>
       <c r="B248" t="s">
@@ -10208,7 +10209,7 @@
       </c>
     </row>
     <row r="249" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A249" s="20" t="s">
+      <c r="A249" s="19" t="s">
         <v>71</v>
       </c>
       <c r="B249" t="s">
@@ -10216,7 +10217,7 @@
       </c>
     </row>
     <row r="250" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A250" s="20" t="s">
+      <c r="A250" s="19" t="s">
         <v>145</v>
       </c>
       <c r="B250" t="s">
@@ -10224,7 +10225,7 @@
       </c>
     </row>
     <row r="251" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A251" s="20" t="s">
+      <c r="A251" s="19" t="s">
         <v>146</v>
       </c>
       <c r="B251" t="s">
@@ -10232,7 +10233,7 @@
       </c>
     </row>
     <row r="252" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A252" s="20" t="s">
+      <c r="A252" s="19" t="s">
         <v>147</v>
       </c>
       <c r="B252" t="s">
@@ -10240,7 +10241,7 @@
       </c>
     </row>
     <row r="253" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A253" s="20" t="s">
+      <c r="A253" s="19" t="s">
         <v>143</v>
       </c>
       <c r="B253" t="s">
@@ -10248,7 +10249,7 @@
       </c>
     </row>
     <row r="254" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A254" s="20" t="s">
+      <c r="A254" s="19" t="s">
         <v>140</v>
       </c>
       <c r="B254" t="s">
@@ -10256,7 +10257,7 @@
       </c>
     </row>
     <row r="255" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A255" s="20" t="s">
+      <c r="A255" s="19" t="s">
         <v>141</v>
       </c>
       <c r="B255" t="s">
@@ -10264,7 +10265,7 @@
       </c>
     </row>
     <row r="256" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A256" s="20" t="s">
+      <c r="A256" s="19" t="s">
         <v>149</v>
       </c>
       <c r="B256" t="s">
@@ -10272,7 +10273,7 @@
       </c>
     </row>
     <row r="257" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A257" s="20" t="s">
+      <c r="A257" s="19" t="s">
         <v>155</v>
       </c>
       <c r="B257" t="s">
@@ -10280,7 +10281,7 @@
       </c>
     </row>
     <row r="258" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A258" s="20" t="s">
+      <c r="A258" s="19" t="s">
         <v>156</v>
       </c>
       <c r="B258" t="s">
@@ -10288,7 +10289,7 @@
       </c>
     </row>
     <row r="259" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A259" s="20" t="s">
+      <c r="A259" s="19" t="s">
         <v>154</v>
       </c>
       <c r="B259" t="s">
@@ -10296,7 +10297,7 @@
       </c>
     </row>
     <row r="260" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A260" s="20" t="s">
+      <c r="A260" s="19" t="s">
         <v>151</v>
       </c>
       <c r="B260" t="s">
@@ -10304,7 +10305,7 @@
       </c>
     </row>
     <row r="261" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A261" s="20" t="s">
+      <c r="A261" s="19" t="s">
         <v>157</v>
       </c>
       <c r="B261" t="s">
@@ -10312,7 +10313,7 @@
       </c>
     </row>
     <row r="262" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A262" s="20" t="s">
+      <c r="A262" s="19" t="s">
         <v>150</v>
       </c>
       <c r="B262" t="s">
@@ -10320,7 +10321,7 @@
       </c>
     </row>
     <row r="263" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A263" s="20" t="s">
+      <c r="A263" s="19" t="s">
         <v>153</v>
       </c>
       <c r="B263" t="s">
@@ -10328,7 +10329,7 @@
       </c>
     </row>
     <row r="264" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A264" s="20" t="s">
+      <c r="A264" s="19" t="s">
         <v>62</v>
       </c>
       <c r="B264" t="s">
@@ -10336,7 +10337,7 @@
       </c>
     </row>
     <row r="265" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A265" s="20" t="s">
+      <c r="A265" s="19" t="s">
         <v>105</v>
       </c>
       <c r="B265" t="s">
@@ -10344,7 +10345,7 @@
       </c>
     </row>
     <row r="266" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A266" s="20" t="s">
+      <c r="A266" s="19" t="s">
         <v>80</v>
       </c>
       <c r="B266" t="s">
@@ -10352,7 +10353,7 @@
       </c>
     </row>
     <row r="267" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A267" s="20" t="s">
+      <c r="A267" s="19" t="s">
         <v>54</v>
       </c>
       <c r="B267" t="s">
@@ -10360,7 +10361,7 @@
       </c>
     </row>
     <row r="268" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A268" s="20" t="s">
+      <c r="A268" s="19" t="s">
         <v>69</v>
       </c>
       <c r="B268" t="s">
@@ -10368,7 +10369,7 @@
       </c>
     </row>
     <row r="269" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A269" s="20" t="s">
+      <c r="A269" s="19" t="s">
         <v>158</v>
       </c>
       <c r="B269" t="s">
@@ -10376,7 +10377,7 @@
       </c>
     </row>
     <row r="270" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A270" s="20" t="s">
+      <c r="A270" s="19" t="s">
         <v>159</v>
       </c>
       <c r="B270" t="s">
@@ -10384,7 +10385,7 @@
       </c>
     </row>
     <row r="271" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A271" s="20" t="s">
+      <c r="A271" s="19" t="s">
         <v>163</v>
       </c>
       <c r="B271" t="s">
@@ -10392,7 +10393,7 @@
       </c>
     </row>
     <row r="272" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A272" s="20" t="s">
+      <c r="A272" s="19" t="s">
         <v>164</v>
       </c>
       <c r="B272" t="s">
@@ -10400,7 +10401,7 @@
       </c>
     </row>
     <row r="273" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A273" s="20" t="s">
+      <c r="A273" s="19" t="s">
         <v>161</v>
       </c>
       <c r="B273" t="s">
@@ -10408,7 +10409,7 @@
       </c>
     </row>
     <row r="274" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A274" s="20" t="s">
+      <c r="A274" s="19" t="s">
         <v>165</v>
       </c>
       <c r="B274" t="s">
@@ -10416,7 +10417,7 @@
       </c>
     </row>
     <row r="275" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A275" s="20" t="s">
+      <c r="A275" s="19" t="s">
         <v>131</v>
       </c>
       <c r="B275" t="s">
@@ -10424,7 +10425,7 @@
       </c>
     </row>
     <row r="276" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A276" s="20" t="s">
+      <c r="A276" s="19" t="s">
         <v>166</v>
       </c>
       <c r="B276" t="s">
@@ -10432,7 +10433,7 @@
       </c>
     </row>
     <row r="277" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A277" s="20" t="s">
+      <c r="A277" s="19" t="s">
         <v>162</v>
       </c>
       <c r="B277" t="s">
@@ -10440,7 +10441,7 @@
       </c>
     </row>
     <row r="278" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A278" s="20" t="s">
+      <c r="A278" s="19" t="s">
         <v>206</v>
       </c>
       <c r="B278" t="s">
@@ -10448,7 +10449,7 @@
       </c>
     </row>
     <row r="279" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A279" s="20" t="s">
+      <c r="A279" s="19" t="s">
         <v>60</v>
       </c>
       <c r="B279" t="s">
@@ -10456,7 +10457,7 @@
       </c>
     </row>
     <row r="280" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A280" s="20" t="s">
+      <c r="A280" s="19" t="s">
         <v>171</v>
       </c>
       <c r="B280" t="s">
@@ -10464,7 +10465,7 @@
       </c>
     </row>
     <row r="281" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A281" s="20" t="s">
+      <c r="A281" s="19" t="s">
         <v>173</v>
       </c>
       <c r="B281" t="s">
@@ -10472,7 +10473,7 @@
       </c>
     </row>
     <row r="282" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A282" s="20" t="s">
+      <c r="A282" s="19" t="s">
         <v>172</v>
       </c>
       <c r="B282" t="s">
@@ -10480,7 +10481,7 @@
       </c>
     </row>
     <row r="283" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A283" s="20" t="s">
+      <c r="A283" s="19" t="s">
         <v>174</v>
       </c>
       <c r="B283" t="s">
@@ -10488,7 +10489,7 @@
       </c>
     </row>
     <row r="284" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A284" s="20" t="s">
+      <c r="A284" s="19" t="s">
         <v>182</v>
       </c>
       <c r="B284" t="s">
@@ -10496,7 +10497,7 @@
       </c>
     </row>
     <row r="285" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A285" s="20" t="s">
+      <c r="A285" s="19" t="s">
         <v>175</v>
       </c>
       <c r="B285" t="s">
@@ -10504,7 +10505,7 @@
       </c>
     </row>
     <row r="286" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A286" s="20" t="s">
+      <c r="A286" s="19" t="s">
         <v>68</v>
       </c>
       <c r="B286" t="s">
@@ -10512,7 +10513,7 @@
       </c>
     </row>
     <row r="287" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A287" s="20" t="s">
+      <c r="A287" s="19" t="s">
         <v>176</v>
       </c>
       <c r="B287" t="s">
@@ -10520,7 +10521,7 @@
       </c>
     </row>
     <row r="288" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A288" s="20" t="s">
+      <c r="A288" s="19" t="s">
         <v>92</v>
       </c>
       <c r="B288" t="s">
@@ -10528,7 +10529,7 @@
       </c>
     </row>
     <row r="289" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A289" s="20" t="s">
+      <c r="A289" s="19" t="s">
         <v>179</v>
       </c>
       <c r="B289" t="s">
@@ -10536,7 +10537,7 @@
       </c>
     </row>
     <row r="290" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A290" s="20" t="s">
+      <c r="A290" s="19" t="s">
         <v>181</v>
       </c>
       <c r="B290" t="s">
@@ -10544,7 +10545,7 @@
       </c>
     </row>
     <row r="291" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A291" s="20" t="s">
+      <c r="A291" s="19" t="s">
         <v>178</v>
       </c>
       <c r="B291" t="s">
@@ -10552,7 +10553,7 @@
       </c>
     </row>
     <row r="292" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A292" s="20" t="s">
+      <c r="A292" s="19" t="s">
         <v>177</v>
       </c>
       <c r="B292" t="s">
@@ -10560,7 +10561,7 @@
       </c>
     </row>
     <row r="293" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A293" s="20" t="s">
+      <c r="A293" s="19" t="s">
         <v>185</v>
       </c>
       <c r="B293" t="s">
@@ -10568,7 +10569,7 @@
       </c>
     </row>
     <row r="294" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A294" s="20" t="s">
+      <c r="A294" s="19" t="s">
         <v>184</v>
       </c>
       <c r="B294" t="s">
@@ -10576,7 +10577,7 @@
       </c>
     </row>
     <row r="295" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A295" s="20" t="s">
+      <c r="A295" s="19" t="s">
         <v>186</v>
       </c>
       <c r="B295" t="s">
@@ -10584,7 +10585,7 @@
       </c>
     </row>
     <row r="296" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A296" s="20" t="s">
+      <c r="A296" s="19" t="s">
         <v>77</v>
       </c>
       <c r="B296" t="s">
@@ -10592,7 +10593,7 @@
       </c>
     </row>
     <row r="297" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A297" s="20" t="s">
+      <c r="A297" s="19" t="s">
         <v>190</v>
       </c>
       <c r="B297" t="s">
@@ -10600,7 +10601,7 @@
       </c>
     </row>
     <row r="298" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A298" s="20" t="s">
+      <c r="A298" s="19" t="s">
         <v>189</v>
       </c>
       <c r="B298" t="s">
@@ -10608,7 +10609,7 @@
       </c>
     </row>
     <row r="299" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A299" s="20" t="s">
+      <c r="A299" s="19" t="s">
         <v>183</v>
       </c>
       <c r="B299" t="s">
@@ -10616,7 +10617,7 @@
       </c>
     </row>
     <row r="300" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A300" s="20" t="s">
+      <c r="A300" s="19" t="s">
         <v>187</v>
       </c>
       <c r="B300" t="s">
@@ -10624,7 +10625,7 @@
       </c>
     </row>
     <row r="301" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A301" s="20" t="s">
+      <c r="A301" s="19" t="s">
         <v>168</v>
       </c>
       <c r="B301" t="s">
@@ -10632,7 +10633,7 @@
       </c>
     </row>
     <row r="302" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A302" s="20" t="s">
+      <c r="A302" s="19" t="s">
         <v>191</v>
       </c>
       <c r="B302" t="s">
@@ -10640,7 +10641,7 @@
       </c>
     </row>
     <row r="303" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A303" s="20" t="s">
+      <c r="A303" s="19" t="s">
         <v>192</v>
       </c>
       <c r="B303" t="s">
@@ -10648,7 +10649,7 @@
       </c>
     </row>
     <row r="304" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A304" s="20" t="s">
+      <c r="A304" s="19" t="s">
         <v>188</v>
       </c>
       <c r="B304" t="s">
@@ -10656,7 +10657,7 @@
       </c>
     </row>
     <row r="305" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A305" s="20" t="s">
+      <c r="A305" s="19" t="s">
         <v>193</v>
       </c>
       <c r="B305" t="s">
@@ -10664,7 +10665,7 @@
       </c>
     </row>
     <row r="306" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A306" s="20" t="s">
+      <c r="A306" s="19" t="s">
         <v>95</v>
       </c>
       <c r="B306" t="s">
@@ -10672,7 +10673,7 @@
       </c>
     </row>
     <row r="307" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A307" s="20" t="s">
+      <c r="A307" s="19" t="s">
         <v>194</v>
       </c>
       <c r="B307" t="s">
@@ -10680,7 +10681,7 @@
       </c>
     </row>
     <row r="308" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A308" s="20" t="s">
+      <c r="A308" s="19" t="s">
         <v>197</v>
       </c>
       <c r="B308" t="s">
@@ -10688,7 +10689,7 @@
       </c>
     </row>
     <row r="309" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A309" s="20" t="s">
+      <c r="A309" s="19" t="s">
         <v>195</v>
       </c>
       <c r="B309" t="s">
@@ -10696,7 +10697,7 @@
       </c>
     </row>
     <row r="310" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A310" s="20" t="s">
+      <c r="A310" s="19" t="s">
         <v>198</v>
       </c>
       <c r="B310" t="s">
@@ -10704,7 +10705,7 @@
       </c>
     </row>
     <row r="311" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A311" s="20" t="s">
+      <c r="A311" s="19" t="s">
         <v>199</v>
       </c>
       <c r="B311" t="s">
@@ -10712,7 +10713,7 @@
       </c>
     </row>
     <row r="312" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A312" s="20" t="s">
+      <c r="A312" s="19" t="s">
         <v>200</v>
       </c>
       <c r="B312" t="s">
@@ -10720,7 +10721,7 @@
       </c>
     </row>
     <row r="313" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A313" s="20" t="s">
+      <c r="A313" s="19" t="s">
         <v>152</v>
       </c>
       <c r="B313" t="s">
@@ -10728,7 +10729,7 @@
       </c>
     </row>
     <row r="314" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A314" s="20" t="s">
+      <c r="A314" s="19" t="s">
         <v>202</v>
       </c>
       <c r="B314" t="s">
@@ -10736,7 +10737,7 @@
       </c>
     </row>
     <row r="315" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A315" s="20" t="s">
+      <c r="A315" s="19" t="s">
         <v>180</v>
       </c>
       <c r="B315" t="s">
@@ -10744,7 +10745,7 @@
       </c>
     </row>
     <row r="316" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A316" s="20" t="s">
+      <c r="A316" s="19" t="s">
         <v>204</v>
       </c>
       <c r="B316" t="s">
@@ -10752,7 +10753,7 @@
       </c>
     </row>
     <row r="317" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A317" s="20" t="s">
+      <c r="A317" s="19" t="s">
         <v>170</v>
       </c>
       <c r="B317" t="s">
@@ -10768,8 +10769,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2048F62D-BAE3-4C6A-92D6-EF6D5CDAD896}">
   <dimension ref="A1:C143"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10856,7 +10857,7 @@
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="20" t="s">
+      <c r="A8" s="19" t="s">
         <v>2</v>
       </c>
       <c r="B8" t="s">
@@ -10867,7 +10868,7 @@
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="20" t="s">
+      <c r="A9" s="19" t="s">
         <v>12</v>
       </c>
       <c r="B9" t="s">
@@ -10878,7 +10879,7 @@
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" s="20" t="s">
+      <c r="A10" s="19" t="s">
         <v>13</v>
       </c>
       <c r="B10" t="s">
@@ -10889,7 +10890,7 @@
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" s="20" t="s">
+      <c r="A11" s="19" t="s">
         <v>22</v>
       </c>
       <c r="B11" t="s">
@@ -11010,7 +11011,7 @@
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" s="20" t="s">
+      <c r="A22" s="19" t="s">
         <v>3</v>
       </c>
       <c r="B22" t="s">
@@ -11076,7 +11077,7 @@
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A28" s="20" t="s">
+      <c r="A28" s="19" t="s">
         <v>1</v>
       </c>
       <c r="B28" t="s">
@@ -11087,7 +11088,7 @@
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A29" s="20" t="s">
+      <c r="A29" s="19" t="s">
         <v>20</v>
       </c>
       <c r="B29" t="s">
@@ -11153,7 +11154,7 @@
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A35" s="20" t="s">
+      <c r="A35" s="19" t="s">
         <v>271</v>
       </c>
       <c r="B35" t="s">
@@ -11362,7 +11363,7 @@
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A54" s="20" t="s">
+      <c r="A54" s="19" t="s">
         <v>18</v>
       </c>
       <c r="B54" t="s">
@@ -11373,7 +11374,7 @@
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A55" s="20" t="s">
+      <c r="A55" s="19" t="s">
         <v>304</v>
       </c>
       <c r="B55" t="s">
@@ -11384,7 +11385,7 @@
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A56" s="20" t="s">
+      <c r="A56" s="19" t="s">
         <v>306</v>
       </c>
       <c r="B56" t="s">
@@ -11395,7 +11396,7 @@
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A57" s="20" t="s">
+      <c r="A57" s="19" t="s">
         <v>308</v>
       </c>
       <c r="B57" t="s">
@@ -11406,7 +11407,7 @@
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A58" s="20" t="s">
+      <c r="A58" s="19" t="s">
         <v>310</v>
       </c>
       <c r="B58" t="s">
@@ -11417,7 +11418,7 @@
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A59" s="20" t="s">
+      <c r="A59" s="19" t="s">
         <v>33</v>
       </c>
       <c r="B59" t="s">
@@ -11428,7 +11429,7 @@
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A60" s="20" t="s">
+      <c r="A60" s="19" t="s">
         <v>313</v>
       </c>
       <c r="B60" t="s">
@@ -11439,7 +11440,7 @@
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A61" s="20" t="s">
+      <c r="A61" s="19" t="s">
         <v>314</v>
       </c>
       <c r="B61" t="s">
@@ -11450,7 +11451,7 @@
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A62" s="20" t="s">
+      <c r="A62" s="19" t="s">
         <v>316</v>
       </c>
       <c r="B62" t="s">
@@ -11571,7 +11572,7 @@
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A73" s="20" t="s">
+      <c r="A73" s="19" t="s">
         <v>7</v>
       </c>
       <c r="B73" t="s">
@@ -11582,7 +11583,7 @@
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A74" s="20" t="s">
+      <c r="A74" s="19" t="s">
         <v>4</v>
       </c>
       <c r="B74" t="s">
@@ -11593,7 +11594,7 @@
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A75" s="20" t="s">
+      <c r="A75" s="19" t="s">
         <v>8</v>
       </c>
       <c r="B75" t="s">
@@ -11604,7 +11605,7 @@
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A76" s="20" t="s">
+      <c r="A76" s="19" t="s">
         <v>31</v>
       </c>
       <c r="B76" t="s">
@@ -11615,7 +11616,7 @@
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A77" s="20" t="s">
+      <c r="A77" s="19" t="s">
         <v>17</v>
       </c>
       <c r="B77" t="s">
@@ -11626,7 +11627,7 @@
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A78" s="20" t="s">
+      <c r="A78" s="19" t="s">
         <v>334</v>
       </c>
       <c r="B78" t="s">
@@ -11637,7 +11638,7 @@
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A79" s="20" t="s">
+      <c r="A79" s="19" t="s">
         <v>336</v>
       </c>
       <c r="B79" t="s">
@@ -11846,7 +11847,7 @@
       </c>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A98" s="20" t="s">
+      <c r="A98" s="19" t="s">
         <v>356</v>
       </c>
       <c r="B98" t="s">
@@ -12330,7 +12331,7 @@
       </c>
     </row>
     <row r="142" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A142" s="20" t="s">
+      <c r="A142" s="19" t="s">
         <v>400</v>
       </c>
       <c r="B142" t="s">
@@ -12341,7 +12342,7 @@
       </c>
     </row>
     <row r="143" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A143" s="20" t="s">
+      <c r="A143" s="19" t="s">
         <v>401</v>
       </c>
       <c r="B143" t="s">
@@ -12357,23 +12358,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_activity xmlns="a7f9d90d-f6c0-413f-aa80-3c98a58a40a2" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100AB254CEE911E6D47A3868FC92F8C8896" ma:contentTypeVersion="16" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="88db7527e16521bcf86d661f15de55ee">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="a7f9d90d-f6c0-413f-aa80-3c98a58a40a2" xmlns:ns4="fd6932f9-f69d-403d-be48-12184a2a3fc4" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="8babb8874b47f6c2ee0d65d330bc9c0d" ns3:_="" ns4:_="">
     <xsd:import namespace="a7f9d90d-f6c0-413f-aa80-3c98a58a40a2"/>
@@ -12612,32 +12596,24 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9D3C3F55-099F-4039-A6B7-F3BAF16A3112}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="fd6932f9-f69d-403d-be48-12184a2a3fc4"/>
-    <ds:schemaRef ds:uri="a7f9d90d-f6c0-413f-aa80-3c98a58a40a2"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1EFB4566-6E52-47ED-A88C-30BB8D461476}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_activity xmlns="a7f9d90d-f6c0-413f-aa80-3c98a58a40a2" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AC7A15F3-A214-4BE9-85EE-D703D5DBC5BB}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -12654,4 +12630,29 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1EFB4566-6E52-47ED-A88C-30BB8D461476}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9D3C3F55-099F-4039-A6B7-F3BAF16A3112}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="fd6932f9-f69d-403d-be48-12184a2a3fc4"/>
+    <ds:schemaRef ds:uri="a7f9d90d-f6c0-413f-aa80-3c98a58a40a2"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>